--- a/metodos_excel/vendor/RENOMBRAR/RENOMBRAR ARCHIVOS/Plantilla RENOMBRAR  Archivos.xlsx
+++ b/metodos_excel/vendor/RENOMBRAR/RENOMBRAR ARCHIVOS/Plantilla RENOMBRAR  Archivos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1125"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>CARPETA</t>
   </si>
@@ -76,18 +76,12 @@
   <si>
     <t>5 doc_4_certificado deuda.pdf</t>
   </si>
-  <si>
-    <t>DIFERENTE ARCHIVOS</t>
-  </si>
-  <si>
-    <t>HAGO UN CONCATENAR PARA PONER LO QUE NECESITO CON DIFERENTES NOMBRES</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,7 +184,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
@@ -750,7 +744,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -782,10 +776,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,7 +810,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -993,14 +985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E12:E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="3" customWidth="1"/>
@@ -1011,7 +1003,7 @@
     <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="9">
         <v>10968</v>
       </c>
@@ -1033,13 +1025,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="9">
         <v>12222</v>
       </c>
@@ -1050,13 +1039,11 @@
         <v>18</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="2"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="9">
         <v>2161</v>
       </c>
@@ -1071,7 +1058,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="9">
         <v>6004</v>
       </c>
@@ -1086,7 +1073,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="9">
         <v>6118</v>
       </c>
@@ -1101,7 +1088,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="9">
         <v>7488</v>
       </c>
@@ -1116,7 +1103,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="9">
         <v>9535</v>
       </c>
@@ -1131,7 +1118,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1140,7 +1127,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1149,7 +1136,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="9">
         <v>10968</v>
       </c>
@@ -1164,7 +1151,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="9">
         <v>12222</v>
       </c>
@@ -1179,7 +1166,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="9">
         <v>2161</v>
       </c>
@@ -1194,7 +1181,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="9">
         <v>6004</v>
       </c>
@@ -1209,7 +1196,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="9">
         <v>6118</v>
       </c>
@@ -1224,7 +1211,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="9">
         <v>7488</v>
       </c>
@@ -1239,7 +1226,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="9">
         <v>9535</v>
       </c>
@@ -1254,7 +1241,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1263,7 +1250,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="9"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1272,7 +1259,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="9"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1281,7 +1268,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="9"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1290,7 +1277,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="9"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1299,7 +1286,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1308,7 +1295,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="9"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1317,7 +1304,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1326,7 +1313,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="9"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1335,7 +1322,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="9"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1344,7 +1331,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="9"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1353,7 +1340,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="9"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1362,7 +1349,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="9"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1371,7 +1358,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="9"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1380,7 +1367,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="9"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1389,7 +1376,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="9"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1398,7 +1385,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="9"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1407,7 +1394,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="9"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1416,7 +1403,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="9"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1425,7 +1412,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="9"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1434,7 +1421,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="9"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1443,7 +1430,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="9"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1452,7 +1439,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="9"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1461,7 +1448,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="9"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1470,7 +1457,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="9"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1479,7 +1466,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="9"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1488,7 +1475,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="9"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1497,7 +1484,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="9"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1506,7 +1493,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="9"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1515,7 +1502,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="9"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1524,7 +1511,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="9"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1533,7 +1520,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="9"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1542,7 +1529,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="9"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1551,7 +1538,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="9"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1560,7 +1547,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="9"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1569,7 +1556,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="9"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1578,7 +1565,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="9"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1587,7 +1574,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="9"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1596,7 +1583,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="9"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1605,7 +1592,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="9"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1614,7 +1601,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="9"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -1623,7 +1610,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="9"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1632,7 +1619,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="9"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1641,7 +1628,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="9"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1650,7 +1637,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="9"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1659,7 +1646,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="9"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1668,7 +1655,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="9"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1677,7 +1664,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="9"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1686,7 +1673,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="9"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -1695,7 +1682,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="9"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1704,7 +1691,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="9"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1713,7 +1700,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="9"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1722,7 +1709,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="10"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1731,7 +1718,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="10"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1740,7 +1727,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="10"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -1749,7 +1736,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="10"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1758,7 +1745,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="10"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -1767,7 +1754,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="10"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -1776,7 +1763,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="10"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -1785,7 +1772,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="10"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -1794,7 +1781,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="10"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -1803,7 +1790,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="10"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -1812,7 +1799,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="10"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -1821,7 +1808,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="10"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -1830,7 +1817,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="10"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -1839,7 +1826,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="10"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -1848,7 +1835,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="10"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -1857,7 +1844,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="10"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -1866,7 +1853,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="10"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -1875,7 +1862,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="10"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -1884,7 +1871,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="10"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -1893,7 +1880,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="10"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -1902,7 +1889,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="10"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -1911,7 +1898,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="10"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -1920,7 +1907,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="10"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -1929,7 +1916,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="10"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -1938,7 +1925,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="10"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -1947,7 +1934,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="10"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -1956,7 +1943,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="10"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -1965,7 +1952,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="10"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -1974,7 +1961,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="10"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -1983,7 +1970,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="10"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -1992,7 +1979,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="10"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -2001,7 +1988,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="10"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -2010,7 +1997,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="10"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -2019,7 +2006,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="10"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -2028,7 +2015,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="10"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -2037,7 +2024,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="10"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -2046,7 +2033,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="10"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -2055,7 +2042,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="10"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -2064,7 +2051,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="10"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -2073,7 +2060,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="10"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -2082,7 +2069,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="10"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -2091,7 +2078,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="10"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -2100,7 +2087,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="10"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -2109,7 +2096,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="10"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -2118,7 +2105,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="10"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -2127,7 +2114,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="10"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -2136,7 +2123,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="10"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -2145,7 +2132,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="10"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -2154,7 +2141,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="10"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -2163,7 +2150,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="10"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -2172,7 +2159,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="9"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="10"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -2181,7 +2168,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="10"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -2190,7 +2177,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="9"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="10"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -2199,7 +2186,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="10"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -2208,7 +2195,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="9"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="10"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -2217,7 +2204,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="10"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -2226,7 +2213,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="10"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -2235,7 +2222,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="10"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -2244,7 +2231,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="9"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="10"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -2253,7 +2240,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="10"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -2262,7 +2249,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="10"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -2271,7 +2258,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="10"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -2280,7 +2267,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="9"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="10"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -2289,7 +2276,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="10"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -2298,7 +2285,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="10"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -2307,7 +2294,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="9"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="10"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -2316,7 +2303,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="10"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -2325,7 +2312,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="10"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -2334,7 +2321,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="10"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -2343,7 +2330,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="9"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="10"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -2352,7 +2339,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="9"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="10"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -2361,7 +2348,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="10"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -2370,7 +2357,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="10"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -2379,7 +2366,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="10"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -2388,7 +2375,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="10"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -2397,7 +2384,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="9"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="10"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -2406,7 +2393,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="10"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -2415,7 +2402,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="9"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="10"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -2424,7 +2411,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="10"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -2433,7 +2420,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="10"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -2442,7 +2429,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="10"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -2451,7 +2438,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="10"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -2460,7 +2447,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="10"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -2469,7 +2456,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="10"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -2478,7 +2465,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="10"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -2487,7 +2474,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="10"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -2496,7 +2483,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="10"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -2505,7 +2492,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="10"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -2514,7 +2501,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="10"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -2523,7 +2510,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="10"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -2532,7 +2519,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="10"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -2541,7 +2528,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="10"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -2550,7 +2537,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="9"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="10"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -2559,7 +2546,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="9"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="10"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -2568,7 +2555,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="9"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="10"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -2577,7 +2564,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="9"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="10"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -2586,7 +2573,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="9"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="10"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -2595,7 +2582,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="10"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -2604,7 +2591,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="10"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -2613,7 +2600,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="9"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="10"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -2622,7 +2609,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="10"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -2631,7 +2618,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="9"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="10"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -2640,7 +2627,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="9"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="10"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -2649,7 +2636,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="9"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="10"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -2658,7 +2645,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="9"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="10"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -2667,7 +2654,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="9"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="10"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -2676,7 +2663,7 @@
       <c r="F175" s="2"/>
       <c r="G175" s="9"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="10"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -2685,7 +2672,7 @@
       <c r="F176" s="2"/>
       <c r="G176" s="9"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="10"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -2694,7 +2681,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="9"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="10"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -2703,7 +2690,7 @@
       <c r="F178" s="2"/>
       <c r="G178" s="9"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="10"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -2712,7 +2699,7 @@
       <c r="F179" s="2"/>
       <c r="G179" s="9"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="10"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -2721,7 +2708,7 @@
       <c r="F180" s="2"/>
       <c r="G180" s="9"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="10"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -2730,7 +2717,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="10"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -2739,7 +2726,7 @@
       <c r="F182" s="2"/>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="10"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -2748,7 +2735,7 @@
       <c r="F183" s="2"/>
       <c r="G183" s="9"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="10"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -2757,7 +2744,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="9"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="10"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -2766,7 +2753,7 @@
       <c r="F185" s="2"/>
       <c r="G185" s="9"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="10"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -2775,7 +2762,7 @@
       <c r="F186" s="2"/>
       <c r="G186" s="9"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="10"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -2784,7 +2771,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="10"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -2793,7 +2780,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="9"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="10"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -2802,7 +2789,7 @@
       <c r="F189" s="2"/>
       <c r="G189" s="9"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="10"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -2811,7 +2798,7 @@
       <c r="F190" s="2"/>
       <c r="G190" s="9"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="10"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -2820,7 +2807,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="9"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="10"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -2829,7 +2816,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="9"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="10"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -2838,7 +2825,7 @@
       <c r="F193" s="2"/>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="10"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -2847,7 +2834,7 @@
       <c r="F194" s="2"/>
       <c r="G194" s="9"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="10"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -2856,7 +2843,7 @@
       <c r="F195" s="2"/>
       <c r="G195" s="9"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="10"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -2865,7 +2852,7 @@
       <c r="F196" s="2"/>
       <c r="G196" s="9"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="10"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -2874,7 +2861,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="9"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="10"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -2883,7 +2870,7 @@
       <c r="F198" s="2"/>
       <c r="G198" s="9"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="10"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -2892,7 +2879,7 @@
       <c r="F199" s="2"/>
       <c r="G199" s="9"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="10"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -2901,7 +2888,7 @@
       <c r="F200" s="2"/>
       <c r="G200" s="9"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="10"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -2910,7 +2897,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="9"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="10"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -2919,7 +2906,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="9"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="10"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -2928,7 +2915,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="10"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -2937,7 +2924,7 @@
       <c r="F204" s="2"/>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="10"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -2946,7 +2933,7 @@
       <c r="F205" s="2"/>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="10"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -2955,7 +2942,7 @@
       <c r="F206" s="2"/>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="10"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -2964,7 +2951,7 @@
       <c r="F207" s="2"/>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="10"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -2973,6666 +2960,6666 @@
       <c r="F208" s="2"/>
       <c r="G208" s="9"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209" s="6"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6">
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6">
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6">
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="A217" s="6"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6">
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6">
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6">
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="F222" s="2"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6">
       <c r="A224" s="6"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="F224" s="2"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:6">
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="F225" s="2"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:6">
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:6">
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="F227" s="2"/>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:6">
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="F228" s="2"/>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:6">
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="F229" s="2"/>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:6">
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="F230" s="2"/>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:6">
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="F231" s="2"/>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:6">
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="F232" s="2"/>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:6">
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="F233" s="2"/>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:6">
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="F234" s="2"/>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:6">
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="F235" s="2"/>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:6">
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="F236" s="2"/>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:6">
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="F237" s="2"/>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:6">
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="F238" s="2"/>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:6">
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="F239" s="2"/>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:6">
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="F240" s="2"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6">
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="F241" s="2"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6">
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="F242" s="2"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6">
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="F243" s="2"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6">
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="F244" s="2"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6">
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="F245" s="2"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6">
       <c r="A246" s="6"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="F246" s="2"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6">
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="F247" s="2"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6">
       <c r="A248" s="6"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="F248" s="2"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6">
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="F249" s="2"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6">
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="F250" s="2"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6">
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="F251" s="2"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6">
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="F252" s="2"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6">
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="F253" s="2"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6">
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="F254" s="2"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6">
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="F255" s="2"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6">
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="F256" s="2"/>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:6">
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="F257" s="2"/>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:6">
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="F258" s="2"/>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:6">
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="F259" s="2"/>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:6">
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="F260" s="2"/>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:6">
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="F261" s="2"/>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:6">
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="F262" s="2"/>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:6">
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="F263" s="2"/>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:6">
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="F264" s="2"/>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:6">
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="F265" s="2"/>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:6">
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="F266" s="2"/>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:6">
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="F267" s="2"/>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:6">
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="F268" s="2"/>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:6">
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="F269" s="2"/>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:6">
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="F270" s="2"/>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:6">
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="F271" s="2"/>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:6">
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="F272" s="2"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6">
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="F273" s="2"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6">
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="F274" s="2"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6">
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="F275" s="2"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6">
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="F276" s="2"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6">
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="F277" s="2"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6">
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="F278" s="2"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6">
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
       <c r="F279" s="2"/>
     </row>
-    <row r="280" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="15.75">
       <c r="A280" s="10"/>
       <c r="C280" s="8"/>
       <c r="D280" s="7"/>
       <c r="F280" s="2"/>
     </row>
-    <row r="281" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="15.75">
       <c r="A281" s="10"/>
       <c r="C281" s="8"/>
       <c r="D281" s="7"/>
       <c r="F281" s="2"/>
     </row>
-    <row r="282" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="15.75">
       <c r="A282" s="10"/>
       <c r="C282" s="8"/>
       <c r="D282" s="7"/>
       <c r="F282" s="2"/>
     </row>
-    <row r="283" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="15.75">
       <c r="A283" s="10"/>
       <c r="C283" s="8"/>
       <c r="D283" s="7"/>
       <c r="F283" s="2"/>
     </row>
-    <row r="284" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="15.75">
       <c r="A284" s="10"/>
       <c r="C284" s="8"/>
       <c r="D284" s="7"/>
       <c r="F284" s="2"/>
     </row>
-    <row r="285" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="15.75">
       <c r="A285" s="10"/>
       <c r="C285" s="8"/>
       <c r="D285" s="7"/>
       <c r="F285" s="2"/>
     </row>
-    <row r="286" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="15.75">
       <c r="A286" s="10"/>
       <c r="C286" s="8"/>
       <c r="D286" s="7"/>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="15.75">
       <c r="A287" s="10"/>
       <c r="C287" s="8"/>
       <c r="D287" s="7"/>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="15.75">
       <c r="A288" s="10"/>
       <c r="C288" s="8"/>
       <c r="D288" s="7"/>
       <c r="F288" s="2"/>
     </row>
-    <row r="289" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="15.75">
       <c r="A289" s="10"/>
       <c r="C289" s="8"/>
       <c r="D289" s="7"/>
       <c r="F289" s="2"/>
     </row>
-    <row r="290" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="15.75">
       <c r="A290" s="10"/>
       <c r="C290" s="8"/>
       <c r="D290" s="7"/>
       <c r="F290" s="2"/>
     </row>
-    <row r="291" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="15.75">
       <c r="A291" s="10"/>
       <c r="C291" s="8"/>
       <c r="D291" s="7"/>
       <c r="F291" s="2"/>
     </row>
-    <row r="292" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="15.75">
       <c r="A292" s="10"/>
       <c r="C292" s="8"/>
       <c r="D292" s="7"/>
       <c r="F292" s="2"/>
     </row>
-    <row r="293" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="15.75">
       <c r="A293" s="10"/>
       <c r="C293" s="8"/>
       <c r="D293" s="7"/>
       <c r="F293" s="2"/>
     </row>
-    <row r="294" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="15.75">
       <c r="A294" s="10"/>
       <c r="C294" s="8"/>
       <c r="D294" s="7"/>
       <c r="F294" s="2"/>
     </row>
-    <row r="295" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="15.75">
       <c r="A295" s="10"/>
       <c r="C295" s="8"/>
       <c r="D295" s="7"/>
       <c r="F295" s="2"/>
     </row>
-    <row r="296" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="15.75">
       <c r="A296" s="10"/>
       <c r="C296" s="8"/>
       <c r="D296" s="7"/>
       <c r="F296" s="2"/>
     </row>
-    <row r="297" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="15.75">
       <c r="A297" s="10"/>
       <c r="C297" s="8"/>
       <c r="D297" s="7"/>
       <c r="F297" s="2"/>
     </row>
-    <row r="298" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="15.75">
       <c r="A298" s="10"/>
       <c r="C298" s="8"/>
       <c r="D298" s="7"/>
       <c r="F298" s="2"/>
     </row>
-    <row r="299" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="15.75">
       <c r="A299" s="10"/>
       <c r="C299" s="8"/>
       <c r="D299" s="7"/>
       <c r="F299" s="2"/>
     </row>
-    <row r="300" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="15.75">
       <c r="A300" s="10"/>
       <c r="C300" s="8"/>
       <c r="D300" s="7"/>
       <c r="F300" s="2"/>
     </row>
-    <row r="301" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="15.75">
       <c r="A301" s="10"/>
       <c r="C301" s="8"/>
       <c r="D301" s="7"/>
       <c r="F301" s="2"/>
     </row>
-    <row r="302" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="15.75">
       <c r="A302" s="10"/>
       <c r="C302" s="8"/>
       <c r="D302" s="7"/>
       <c r="F302" s="2"/>
     </row>
-    <row r="303" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="15.75">
       <c r="A303" s="10"/>
       <c r="C303" s="8"/>
       <c r="D303" s="7"/>
       <c r="F303" s="2"/>
     </row>
-    <row r="304" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="15.75">
       <c r="A304" s="10"/>
       <c r="C304" s="8"/>
       <c r="D304" s="7"/>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="15.75">
       <c r="A305" s="10"/>
       <c r="C305" s="8"/>
       <c r="D305" s="7"/>
       <c r="F305" s="2"/>
     </row>
-    <row r="306" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="15.75">
       <c r="A306" s="10"/>
       <c r="C306" s="8"/>
       <c r="D306" s="7"/>
       <c r="F306" s="2"/>
     </row>
-    <row r="307" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="15.75">
       <c r="A307" s="10"/>
       <c r="C307" s="8"/>
       <c r="D307" s="7"/>
       <c r="F307" s="2"/>
     </row>
-    <row r="308" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="15.75">
       <c r="A308" s="10"/>
       <c r="C308" s="8"/>
       <c r="D308" s="7"/>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="15.75">
       <c r="A309" s="10"/>
       <c r="C309" s="8"/>
       <c r="D309" s="7"/>
       <c r="F309" s="2"/>
     </row>
-    <row r="310" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="15.75">
       <c r="A310" s="10"/>
       <c r="C310" s="8"/>
       <c r="D310" s="7"/>
       <c r="F310" s="2"/>
     </row>
-    <row r="311" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="15.75">
       <c r="A311" s="10"/>
       <c r="C311" s="8"/>
       <c r="D311" s="7"/>
       <c r="F311" s="2"/>
     </row>
-    <row r="312" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="15.75">
       <c r="A312" s="10"/>
       <c r="C312" s="8"/>
       <c r="D312" s="7"/>
       <c r="F312" s="2"/>
     </row>
-    <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="15.75">
       <c r="A313" s="10"/>
       <c r="C313" s="8"/>
       <c r="D313" s="7"/>
       <c r="F313" s="2"/>
     </row>
-    <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="15.75">
       <c r="A314" s="10"/>
       <c r="C314" s="8"/>
       <c r="D314" s="7"/>
       <c r="F314" s="2"/>
     </row>
-    <row r="315" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="15.75">
       <c r="A315" s="10"/>
       <c r="C315" s="8"/>
       <c r="D315" s="7"/>
       <c r="F315" s="2"/>
     </row>
-    <row r="316" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="15.75">
       <c r="A316" s="10"/>
       <c r="C316" s="8"/>
       <c r="D316" s="7"/>
       <c r="F316" s="2"/>
     </row>
-    <row r="317" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="15.75">
       <c r="A317" s="10"/>
       <c r="C317" s="8"/>
       <c r="D317" s="7"/>
       <c r="F317" s="2"/>
     </row>
-    <row r="318" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="15.75">
       <c r="A318" s="10"/>
       <c r="C318" s="8"/>
       <c r="D318" s="7"/>
       <c r="F318" s="2"/>
     </row>
-    <row r="319" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="15.75">
       <c r="A319" s="10"/>
       <c r="C319" s="8"/>
       <c r="D319" s="7"/>
       <c r="F319" s="2"/>
     </row>
-    <row r="320" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="15.75">
       <c r="A320" s="10"/>
       <c r="C320" s="8"/>
       <c r="D320" s="7"/>
       <c r="F320" s="2"/>
     </row>
-    <row r="321" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="15.75">
       <c r="A321" s="10"/>
       <c r="C321" s="8"/>
       <c r="D321" s="7"/>
       <c r="F321" s="2"/>
     </row>
-    <row r="322" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="15.75">
       <c r="A322" s="10"/>
       <c r="C322" s="8"/>
       <c r="D322" s="7"/>
       <c r="F322" s="2"/>
     </row>
-    <row r="323" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="15.75">
       <c r="A323" s="10"/>
       <c r="C323" s="8"/>
       <c r="D323" s="7"/>
       <c r="F323" s="2"/>
     </row>
-    <row r="324" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="15.75">
       <c r="A324" s="10"/>
       <c r="C324" s="8"/>
       <c r="D324" s="7"/>
       <c r="F324" s="2"/>
     </row>
-    <row r="325" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="15.75">
       <c r="A325" s="10"/>
       <c r="C325" s="8"/>
       <c r="D325" s="7"/>
       <c r="F325" s="2"/>
     </row>
-    <row r="326" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="15.75">
       <c r="A326" s="10"/>
       <c r="C326" s="8"/>
       <c r="D326" s="7"/>
       <c r="F326" s="2"/>
     </row>
-    <row r="327" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="15.75">
       <c r="A327" s="10"/>
       <c r="C327" s="8"/>
       <c r="D327" s="7"/>
       <c r="F327" s="2"/>
     </row>
-    <row r="328" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="15.75">
       <c r="A328" s="10"/>
       <c r="C328" s="8"/>
       <c r="D328" s="7"/>
       <c r="F328" s="2"/>
     </row>
-    <row r="329" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="15.75">
       <c r="A329" s="10"/>
       <c r="C329" s="8"/>
       <c r="D329" s="7"/>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="15.75">
       <c r="A330" s="10"/>
       <c r="C330" s="8"/>
       <c r="D330" s="7"/>
       <c r="F330" s="2"/>
     </row>
-    <row r="331" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="15.75">
       <c r="A331" s="10"/>
       <c r="C331" s="8"/>
       <c r="D331" s="7"/>
       <c r="F331" s="2"/>
     </row>
-    <row r="332" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="15.75">
       <c r="A332" s="10"/>
       <c r="C332" s="8"/>
       <c r="D332" s="7"/>
       <c r="F332" s="2"/>
     </row>
-    <row r="333" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="15.75">
       <c r="A333" s="10"/>
       <c r="C333" s="8"/>
       <c r="D333" s="7"/>
       <c r="F333" s="2"/>
     </row>
-    <row r="334" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="15.75">
       <c r="A334" s="10"/>
       <c r="C334" s="8"/>
       <c r="D334" s="7"/>
       <c r="F334" s="2"/>
     </row>
-    <row r="335" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="15.75">
       <c r="A335" s="10"/>
       <c r="C335" s="8"/>
       <c r="D335" s="7"/>
       <c r="F335" s="2"/>
     </row>
-    <row r="336" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="15.75">
       <c r="A336" s="10"/>
       <c r="C336" s="8"/>
       <c r="D336" s="7"/>
       <c r="F336" s="2"/>
     </row>
-    <row r="337" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="15.75">
       <c r="A337" s="10"/>
       <c r="C337" s="8"/>
       <c r="D337" s="7"/>
       <c r="F337" s="2"/>
     </row>
-    <row r="338" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="15.75">
       <c r="A338" s="10"/>
       <c r="C338" s="8"/>
       <c r="D338" s="7"/>
       <c r="F338" s="2"/>
     </row>
-    <row r="339" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="15.75">
       <c r="A339" s="10"/>
       <c r="C339" s="8"/>
       <c r="D339" s="7"/>
       <c r="F339" s="2"/>
     </row>
-    <row r="340" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="15.75">
       <c r="A340" s="10"/>
       <c r="C340" s="8"/>
       <c r="D340" s="7"/>
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="15.75">
       <c r="A341" s="10"/>
       <c r="C341" s="8"/>
       <c r="D341" s="7"/>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="15.75">
       <c r="A342" s="10"/>
       <c r="C342" s="8"/>
       <c r="D342" s="7"/>
       <c r="F342" s="2"/>
     </row>
-    <row r="343" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="15.75">
       <c r="A343" s="10"/>
       <c r="C343" s="8"/>
       <c r="D343" s="7"/>
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="15.75">
       <c r="A344" s="10"/>
       <c r="C344" s="8"/>
       <c r="D344" s="7"/>
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="15.75">
       <c r="A345" s="10"/>
       <c r="C345" s="8"/>
       <c r="D345" s="7"/>
       <c r="F345" s="2"/>
     </row>
-    <row r="346" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="15.75">
       <c r="A346" s="10"/>
       <c r="C346" s="8"/>
       <c r="D346" s="7"/>
       <c r="F346" s="2"/>
     </row>
-    <row r="347" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="15.75">
       <c r="A347" s="10"/>
       <c r="C347" s="8"/>
       <c r="D347" s="7"/>
       <c r="F347" s="2"/>
     </row>
-    <row r="348" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="15.75">
       <c r="A348" s="10"/>
       <c r="C348" s="8"/>
       <c r="D348" s="7"/>
       <c r="F348" s="2"/>
     </row>
-    <row r="349" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="15.75">
       <c r="A349" s="10"/>
       <c r="C349" s="8"/>
       <c r="D349" s="7"/>
       <c r="F349" s="2"/>
     </row>
-    <row r="350" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="15.75">
       <c r="A350" s="10"/>
       <c r="C350" s="8"/>
       <c r="D350" s="7"/>
       <c r="F350" s="2"/>
     </row>
-    <row r="351" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="15.75">
       <c r="A351" s="10"/>
       <c r="C351" s="8"/>
       <c r="D351" s="7"/>
       <c r="F351" s="2"/>
     </row>
-    <row r="352" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="15.75">
       <c r="A352" s="10"/>
       <c r="C352" s="8"/>
       <c r="D352" s="7"/>
       <c r="F352" s="2"/>
     </row>
-    <row r="353" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="15.75">
       <c r="A353" s="10"/>
       <c r="C353" s="8"/>
       <c r="D353" s="7"/>
       <c r="F353" s="2"/>
     </row>
-    <row r="354" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="15.75">
       <c r="A354" s="10"/>
       <c r="C354" s="8"/>
       <c r="D354" s="7"/>
       <c r="F354" s="2"/>
     </row>
-    <row r="355" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="15.75">
       <c r="A355" s="10"/>
       <c r="C355" s="8"/>
       <c r="D355" s="7"/>
       <c r="F355" s="2"/>
     </row>
-    <row r="356" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="15.75">
       <c r="A356" s="10"/>
       <c r="C356" s="8"/>
       <c r="D356" s="7"/>
       <c r="F356" s="2"/>
     </row>
-    <row r="357" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="15.75">
       <c r="A357" s="10"/>
       <c r="C357" s="8"/>
       <c r="D357" s="7"/>
       <c r="F357" s="2"/>
     </row>
-    <row r="358" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="15.75">
       <c r="A358" s="10"/>
       <c r="C358" s="8"/>
       <c r="D358" s="7"/>
       <c r="F358" s="2"/>
     </row>
-    <row r="359" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="15.75">
       <c r="A359" s="10"/>
       <c r="C359" s="8"/>
       <c r="D359" s="7"/>
       <c r="F359" s="2"/>
     </row>
-    <row r="360" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="15.75">
       <c r="A360" s="10"/>
       <c r="C360" s="8"/>
       <c r="D360" s="7"/>
       <c r="F360" s="2"/>
     </row>
-    <row r="361" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="15.75">
       <c r="A361" s="10"/>
       <c r="C361" s="8"/>
       <c r="D361" s="7"/>
       <c r="F361" s="2"/>
     </row>
-    <row r="362" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="15.75">
       <c r="A362" s="10"/>
       <c r="C362" s="8"/>
       <c r="D362" s="7"/>
       <c r="F362" s="2"/>
     </row>
-    <row r="363" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" ht="15.75">
       <c r="A363" s="10"/>
       <c r="C363" s="8"/>
       <c r="D363" s="7"/>
       <c r="F363" s="2"/>
     </row>
-    <row r="364" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="15.75">
       <c r="A364" s="10"/>
       <c r="C364" s="8"/>
       <c r="D364" s="7"/>
       <c r="F364" s="2"/>
     </row>
-    <row r="365" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="15.75">
       <c r="A365" s="10"/>
       <c r="C365" s="8"/>
       <c r="D365" s="7"/>
       <c r="F365" s="2"/>
     </row>
-    <row r="366" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="15.75">
       <c r="A366" s="10"/>
       <c r="C366" s="8"/>
       <c r="D366" s="7"/>
       <c r="F366" s="2"/>
     </row>
-    <row r="367" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="15.75">
       <c r="A367" s="10"/>
       <c r="C367" s="8"/>
       <c r="D367" s="7"/>
       <c r="F367" s="2"/>
     </row>
-    <row r="368" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="15.75">
       <c r="A368" s="10"/>
       <c r="C368" s="8"/>
       <c r="D368" s="7"/>
       <c r="F368" s="2"/>
     </row>
-    <row r="369" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="15.75">
       <c r="A369" s="10"/>
       <c r="C369" s="8"/>
       <c r="D369" s="7"/>
       <c r="F369" s="2"/>
     </row>
-    <row r="370" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" ht="15.75">
       <c r="A370" s="10"/>
       <c r="C370" s="8"/>
       <c r="D370" s="7"/>
       <c r="F370" s="2"/>
     </row>
-    <row r="371" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="15.75">
       <c r="A371" s="10"/>
       <c r="C371" s="8"/>
       <c r="D371" s="7"/>
       <c r="F371" s="2"/>
     </row>
-    <row r="372" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="15.75">
       <c r="A372" s="10"/>
       <c r="C372" s="8"/>
       <c r="D372" s="7"/>
       <c r="F372" s="2"/>
     </row>
-    <row r="373" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="15.75">
       <c r="A373" s="10"/>
       <c r="C373" s="8"/>
       <c r="D373" s="7"/>
       <c r="F373" s="2"/>
     </row>
-    <row r="374" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" ht="15.75">
       <c r="A374" s="10"/>
       <c r="C374" s="8"/>
       <c r="D374" s="7"/>
       <c r="F374" s="2"/>
     </row>
-    <row r="375" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="15.75">
       <c r="A375" s="10"/>
       <c r="C375" s="8"/>
       <c r="D375" s="7"/>
       <c r="F375" s="2"/>
     </row>
-    <row r="376" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" ht="15.75">
       <c r="A376" s="10"/>
       <c r="C376" s="8"/>
       <c r="D376" s="7"/>
       <c r="F376" s="2"/>
     </row>
-    <row r="377" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" ht="15.75">
       <c r="A377" s="10"/>
       <c r="C377" s="8"/>
       <c r="D377" s="7"/>
       <c r="F377" s="2"/>
     </row>
-    <row r="378" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" ht="15.75">
       <c r="A378" s="10"/>
       <c r="C378" s="8"/>
       <c r="D378" s="7"/>
       <c r="F378" s="2"/>
     </row>
-    <row r="379" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="15.75">
       <c r="A379" s="10"/>
       <c r="C379" s="8"/>
       <c r="D379" s="7"/>
       <c r="F379" s="2"/>
     </row>
-    <row r="380" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="15.75">
       <c r="A380" s="10"/>
       <c r="C380" s="8"/>
       <c r="D380" s="7"/>
       <c r="F380" s="2"/>
     </row>
-    <row r="381" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="15.75">
       <c r="A381" s="10"/>
       <c r="C381" s="8"/>
       <c r="D381" s="7"/>
       <c r="F381" s="2"/>
     </row>
-    <row r="382" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="15.75">
       <c r="A382" s="10"/>
       <c r="C382" s="8"/>
       <c r="D382" s="7"/>
       <c r="F382" s="2"/>
     </row>
-    <row r="383" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" ht="15.75">
       <c r="A383" s="10"/>
       <c r="C383" s="8"/>
       <c r="D383" s="7"/>
       <c r="F383" s="2"/>
     </row>
-    <row r="384" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="15.75">
       <c r="A384" s="10"/>
       <c r="C384" s="8"/>
       <c r="D384" s="7"/>
       <c r="F384" s="2"/>
     </row>
-    <row r="385" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="15.75">
       <c r="A385" s="10"/>
       <c r="C385" s="8"/>
       <c r="D385" s="7"/>
       <c r="F385" s="2"/>
     </row>
-    <row r="386" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" ht="15.75">
       <c r="A386" s="10"/>
       <c r="C386" s="8"/>
       <c r="D386" s="7"/>
       <c r="F386" s="2"/>
     </row>
-    <row r="387" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" ht="15.75">
       <c r="A387" s="10"/>
       <c r="C387" s="8"/>
       <c r="D387" s="7"/>
       <c r="F387" s="2"/>
     </row>
-    <row r="388" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" ht="15.75">
       <c r="A388" s="10"/>
       <c r="C388" s="8"/>
       <c r="D388" s="7"/>
       <c r="F388" s="2"/>
     </row>
-    <row r="389" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="15.75">
       <c r="A389" s="10"/>
       <c r="C389" s="8"/>
       <c r="D389" s="7"/>
       <c r="F389" s="2"/>
     </row>
-    <row r="390" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" ht="15.75">
       <c r="A390" s="10"/>
       <c r="C390" s="8"/>
       <c r="D390" s="7"/>
       <c r="F390" s="2"/>
     </row>
-    <row r="391" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" ht="15.75">
       <c r="A391" s="10"/>
       <c r="C391" s="8"/>
       <c r="D391" s="7"/>
       <c r="F391" s="2"/>
     </row>
-    <row r="392" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" ht="15.75">
       <c r="A392" s="10"/>
       <c r="C392" s="8"/>
       <c r="D392" s="7"/>
       <c r="F392" s="2"/>
     </row>
-    <row r="393" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" ht="15.75">
       <c r="A393" s="10"/>
       <c r="C393" s="8"/>
       <c r="D393" s="7"/>
       <c r="F393" s="2"/>
     </row>
-    <row r="394" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="15.75">
       <c r="A394" s="10"/>
       <c r="C394" s="8"/>
       <c r="D394" s="7"/>
       <c r="F394" s="2"/>
     </row>
-    <row r="395" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="15.75">
       <c r="A395" s="10"/>
       <c r="C395" s="8"/>
       <c r="D395" s="7"/>
       <c r="F395" s="2"/>
     </row>
-    <row r="396" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" ht="15.75">
       <c r="A396" s="10"/>
       <c r="C396" s="8"/>
       <c r="D396" s="7"/>
       <c r="F396" s="2"/>
     </row>
-    <row r="397" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" ht="15.75">
       <c r="A397" s="10"/>
       <c r="C397" s="8"/>
       <c r="D397" s="7"/>
       <c r="F397" s="2"/>
     </row>
-    <row r="398" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" ht="15.75">
       <c r="A398" s="10"/>
       <c r="C398" s="8"/>
       <c r="D398" s="7"/>
       <c r="F398" s="2"/>
     </row>
-    <row r="399" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="15.75">
       <c r="A399" s="10"/>
       <c r="C399" s="8"/>
       <c r="D399" s="7"/>
       <c r="F399" s="2"/>
     </row>
-    <row r="400" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="15.75">
       <c r="A400" s="10"/>
       <c r="C400" s="8"/>
       <c r="D400" s="7"/>
       <c r="F400" s="2"/>
     </row>
-    <row r="401" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" ht="15.75">
       <c r="A401" s="10"/>
       <c r="C401" s="8"/>
       <c r="D401" s="7"/>
       <c r="F401" s="2"/>
     </row>
-    <row r="402" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="15.75">
       <c r="A402" s="10"/>
       <c r="C402" s="8"/>
       <c r="D402" s="7"/>
       <c r="F402" s="2"/>
     </row>
-    <row r="403" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="15.75">
       <c r="A403" s="10"/>
       <c r="C403" s="8"/>
       <c r="D403" s="7"/>
       <c r="F403" s="2"/>
     </row>
-    <row r="404" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="15.75">
       <c r="A404" s="10"/>
       <c r="C404" s="8"/>
       <c r="D404" s="7"/>
       <c r="F404" s="2"/>
     </row>
-    <row r="405" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" ht="15.75">
       <c r="A405" s="10"/>
       <c r="C405" s="8"/>
       <c r="D405" s="7"/>
       <c r="F405" s="2"/>
     </row>
-    <row r="406" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" ht="15.75">
       <c r="A406" s="10"/>
       <c r="C406" s="8"/>
       <c r="D406" s="7"/>
       <c r="F406" s="2"/>
     </row>
-    <row r="407" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" ht="15.75">
       <c r="A407" s="10"/>
       <c r="C407" s="8"/>
       <c r="D407" s="7"/>
       <c r="F407" s="2"/>
     </row>
-    <row r="408" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" ht="15.75">
       <c r="A408" s="10"/>
       <c r="C408" s="8"/>
       <c r="D408" s="7"/>
       <c r="F408" s="2"/>
     </row>
-    <row r="409" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" ht="15.75">
       <c r="A409" s="10"/>
       <c r="C409" s="8"/>
       <c r="D409" s="7"/>
       <c r="F409" s="2"/>
     </row>
-    <row r="410" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" ht="15.75">
       <c r="A410" s="10"/>
       <c r="C410" s="8"/>
       <c r="D410" s="7"/>
       <c r="F410" s="2"/>
     </row>
-    <row r="411" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="15.75">
       <c r="A411" s="10"/>
       <c r="C411" s="8"/>
       <c r="D411" s="7"/>
       <c r="F411" s="2"/>
     </row>
-    <row r="412" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" ht="15.75">
       <c r="A412" s="10"/>
       <c r="C412" s="8"/>
       <c r="D412" s="7"/>
       <c r="F412" s="2"/>
     </row>
-    <row r="413" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" ht="15.75">
       <c r="A413" s="10"/>
       <c r="C413" s="8"/>
       <c r="D413" s="7"/>
       <c r="F413" s="2"/>
     </row>
-    <row r="414" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" ht="15.75">
       <c r="A414" s="10"/>
       <c r="C414" s="8"/>
       <c r="D414" s="7"/>
       <c r="F414" s="2"/>
     </row>
-    <row r="415" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" ht="15.75">
       <c r="A415" s="10"/>
       <c r="C415" s="8"/>
       <c r="D415" s="7"/>
       <c r="F415" s="2"/>
     </row>
-    <row r="416" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="15.75">
       <c r="A416" s="10"/>
       <c r="C416" s="8"/>
       <c r="D416" s="7"/>
       <c r="F416" s="2"/>
     </row>
-    <row r="417" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="15.75">
       <c r="A417" s="10"/>
       <c r="C417" s="8"/>
       <c r="D417" s="7"/>
       <c r="F417" s="2"/>
     </row>
-    <row r="418" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="15.75">
       <c r="A418" s="10"/>
       <c r="C418" s="8"/>
       <c r="D418" s="7"/>
       <c r="F418" s="2"/>
     </row>
-    <row r="419" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" ht="15.75">
       <c r="A419" s="10"/>
       <c r="C419" s="8"/>
       <c r="D419" s="7"/>
       <c r="F419" s="2"/>
     </row>
-    <row r="420" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" ht="15.75">
       <c r="A420" s="10"/>
       <c r="C420" s="8"/>
       <c r="D420" s="7"/>
       <c r="F420" s="2"/>
     </row>
-    <row r="421" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" ht="15.75">
       <c r="A421" s="10"/>
       <c r="C421" s="8"/>
       <c r="D421" s="7"/>
       <c r="F421" s="2"/>
     </row>
-    <row r="422" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" ht="15.75">
       <c r="A422" s="10"/>
       <c r="C422" s="8"/>
       <c r="D422" s="7"/>
       <c r="F422" s="2"/>
     </row>
-    <row r="423" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" ht="15.75">
       <c r="A423" s="10"/>
       <c r="C423" s="8"/>
       <c r="D423" s="7"/>
       <c r="F423" s="2"/>
     </row>
-    <row r="424" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="15.75">
       <c r="A424" s="10"/>
       <c r="C424" s="8"/>
       <c r="D424" s="7"/>
       <c r="F424" s="2"/>
     </row>
-    <row r="425" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" ht="15.75">
       <c r="A425" s="10"/>
       <c r="C425" s="8"/>
       <c r="D425" s="7"/>
       <c r="F425" s="2"/>
     </row>
-    <row r="426" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" ht="15.75">
       <c r="A426" s="10"/>
       <c r="C426" s="8"/>
       <c r="D426" s="7"/>
       <c r="F426" s="2"/>
     </row>
-    <row r="427" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" ht="15.75">
       <c r="A427" s="10"/>
       <c r="C427" s="8"/>
       <c r="D427" s="7"/>
       <c r="F427" s="2"/>
     </row>
-    <row r="428" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" ht="15.75">
       <c r="A428" s="10"/>
       <c r="C428" s="8"/>
       <c r="D428" s="7"/>
       <c r="F428" s="2"/>
     </row>
-    <row r="429" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" ht="15.75">
       <c r="A429" s="10"/>
       <c r="C429" s="8"/>
       <c r="D429" s="7"/>
       <c r="F429" s="2"/>
     </row>
-    <row r="430" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="15.75">
       <c r="A430" s="10"/>
       <c r="C430" s="8"/>
       <c r="D430" s="7"/>
       <c r="F430" s="2"/>
     </row>
-    <row r="431" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" ht="15.75">
       <c r="A431" s="10"/>
       <c r="C431" s="8"/>
       <c r="D431" s="7"/>
       <c r="F431" s="2"/>
     </row>
-    <row r="432" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="15.75">
       <c r="A432" s="10"/>
       <c r="C432" s="8"/>
       <c r="D432" s="7"/>
       <c r="F432" s="2"/>
     </row>
-    <row r="433" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" ht="15.75">
       <c r="A433" s="10"/>
       <c r="C433" s="8"/>
       <c r="D433" s="7"/>
       <c r="F433" s="2"/>
     </row>
-    <row r="434" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="15.75">
       <c r="A434" s="10"/>
       <c r="C434" s="8"/>
       <c r="D434" s="7"/>
       <c r="F434" s="2"/>
     </row>
-    <row r="435" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" ht="15.75">
       <c r="A435" s="10"/>
       <c r="C435" s="8"/>
       <c r="D435" s="7"/>
       <c r="F435" s="2"/>
     </row>
-    <row r="436" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" ht="15.75">
       <c r="A436" s="10"/>
       <c r="C436" s="8"/>
       <c r="D436" s="7"/>
       <c r="F436" s="2"/>
     </row>
-    <row r="437" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" ht="15.75">
       <c r="A437" s="10"/>
       <c r="C437" s="8"/>
       <c r="D437" s="7"/>
       <c r="F437" s="2"/>
     </row>
-    <row r="438" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" ht="15.75">
       <c r="A438" s="10"/>
       <c r="C438" s="8"/>
       <c r="D438" s="7"/>
       <c r="F438" s="2"/>
     </row>
-    <row r="439" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" ht="15.75">
       <c r="A439" s="10"/>
       <c r="C439" s="8"/>
       <c r="D439" s="7"/>
       <c r="F439" s="2"/>
     </row>
-    <row r="440" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" ht="15.75">
       <c r="A440" s="10"/>
       <c r="C440" s="8"/>
       <c r="D440" s="7"/>
       <c r="F440" s="2"/>
     </row>
-    <row r="441" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" ht="15.75">
       <c r="A441" s="10"/>
       <c r="C441" s="8"/>
       <c r="D441" s="7"/>
       <c r="F441" s="2"/>
     </row>
-    <row r="442" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" ht="15.75">
       <c r="A442" s="10"/>
       <c r="C442" s="8"/>
       <c r="D442" s="7"/>
       <c r="F442" s="2"/>
     </row>
-    <row r="443" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" ht="15.75">
       <c r="A443" s="10"/>
       <c r="C443" s="8"/>
       <c r="D443" s="7"/>
       <c r="F443" s="2"/>
     </row>
-    <row r="444" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" ht="15.75">
       <c r="A444" s="10"/>
       <c r="C444" s="8"/>
       <c r="D444" s="7"/>
       <c r="F444" s="2"/>
     </row>
-    <row r="445" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" ht="15.75">
       <c r="A445" s="10"/>
       <c r="C445" s="8"/>
       <c r="D445" s="7"/>
       <c r="F445" s="2"/>
     </row>
-    <row r="446" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" ht="15.75">
       <c r="A446" s="10"/>
       <c r="C446" s="8"/>
       <c r="D446" s="7"/>
       <c r="F446" s="2"/>
     </row>
-    <row r="447" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" ht="15.75">
       <c r="A447" s="10"/>
       <c r="C447" s="8"/>
       <c r="D447" s="7"/>
       <c r="F447" s="2"/>
     </row>
-    <row r="448" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" ht="15.75">
       <c r="A448" s="10"/>
       <c r="C448" s="8"/>
       <c r="D448" s="7"/>
       <c r="F448" s="2"/>
     </row>
-    <row r="449" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" ht="15.75">
       <c r="A449" s="10"/>
       <c r="C449" s="8"/>
       <c r="D449" s="7"/>
       <c r="F449" s="2"/>
     </row>
-    <row r="450" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" ht="15.75">
       <c r="A450" s="10"/>
       <c r="C450" s="8"/>
       <c r="D450" s="7"/>
       <c r="F450" s="2"/>
     </row>
-    <row r="451" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" ht="15.75">
       <c r="A451" s="10"/>
       <c r="C451" s="8"/>
       <c r="D451" s="7"/>
       <c r="F451" s="2"/>
     </row>
-    <row r="452" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="15.75">
       <c r="A452" s="10"/>
       <c r="C452" s="8"/>
       <c r="D452" s="7"/>
       <c r="F452" s="2"/>
     </row>
-    <row r="453" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="15.75">
       <c r="A453" s="10"/>
       <c r="C453" s="8"/>
       <c r="D453" s="7"/>
       <c r="F453" s="2"/>
     </row>
-    <row r="454" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="15.75">
       <c r="A454" s="10"/>
       <c r="C454" s="8"/>
       <c r="D454" s="7"/>
       <c r="F454" s="2"/>
     </row>
-    <row r="455" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" ht="15.75">
       <c r="A455" s="10"/>
       <c r="C455" s="8"/>
       <c r="D455" s="7"/>
       <c r="F455" s="2"/>
     </row>
-    <row r="456" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" ht="15.75">
       <c r="A456" s="10"/>
       <c r="C456" s="8"/>
       <c r="D456" s="7"/>
       <c r="F456" s="2"/>
     </row>
-    <row r="457" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" ht="15.75">
       <c r="A457" s="10"/>
       <c r="C457" s="8"/>
       <c r="D457" s="7"/>
       <c r="F457" s="2"/>
     </row>
-    <row r="458" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" ht="15.75">
       <c r="A458" s="10"/>
       <c r="C458" s="8"/>
       <c r="D458" s="7"/>
       <c r="F458" s="2"/>
     </row>
-    <row r="459" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" ht="15.75">
       <c r="A459" s="10"/>
       <c r="C459" s="8"/>
       <c r="D459" s="7"/>
       <c r="F459" s="2"/>
     </row>
-    <row r="460" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" ht="15.75">
       <c r="A460" s="10"/>
       <c r="C460" s="8"/>
       <c r="D460" s="7"/>
       <c r="F460" s="2"/>
     </row>
-    <row r="461" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="15.75">
       <c r="A461" s="10"/>
       <c r="C461" s="8"/>
       <c r="D461" s="7"/>
       <c r="F461" s="2"/>
     </row>
-    <row r="462" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" ht="15.75">
       <c r="A462" s="10"/>
       <c r="C462" s="8"/>
       <c r="D462" s="7"/>
       <c r="F462" s="2"/>
     </row>
-    <row r="463" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="15.75">
       <c r="A463" s="10"/>
       <c r="C463" s="8"/>
       <c r="D463" s="7"/>
       <c r="F463" s="2"/>
     </row>
-    <row r="464" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" ht="15.75">
       <c r="A464" s="10"/>
       <c r="C464" s="8"/>
       <c r="D464" s="7"/>
       <c r="F464" s="2"/>
     </row>
-    <row r="465" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" ht="15.75">
       <c r="A465" s="10"/>
       <c r="C465" s="8"/>
       <c r="D465" s="7"/>
       <c r="F465" s="2"/>
     </row>
-    <row r="466" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" ht="15.75">
       <c r="A466" s="10"/>
       <c r="C466" s="8"/>
       <c r="D466" s="7"/>
       <c r="F466" s="2"/>
     </row>
-    <row r="467" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" ht="15.75">
       <c r="A467" s="10"/>
       <c r="C467" s="8"/>
       <c r="D467" s="7"/>
       <c r="F467" s="2"/>
     </row>
-    <row r="468" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" ht="15.75">
       <c r="A468" s="10"/>
       <c r="C468" s="8"/>
       <c r="D468" s="7"/>
       <c r="F468" s="2"/>
     </row>
-    <row r="469" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" ht="15.75">
       <c r="A469" s="10"/>
       <c r="C469" s="8"/>
       <c r="D469" s="7"/>
       <c r="F469" s="2"/>
     </row>
-    <row r="470" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="15.75">
       <c r="A470" s="10"/>
       <c r="C470" s="8"/>
       <c r="D470" s="7"/>
       <c r="F470" s="2"/>
     </row>
-    <row r="471" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="15.75">
       <c r="A471" s="10"/>
       <c r="C471" s="8"/>
       <c r="D471" s="7"/>
       <c r="F471" s="2"/>
     </row>
-    <row r="472" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" ht="15.75">
       <c r="A472" s="10"/>
       <c r="C472" s="8"/>
       <c r="D472" s="7"/>
       <c r="F472" s="2"/>
     </row>
-    <row r="473" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" ht="15.75">
       <c r="A473" s="10"/>
       <c r="C473" s="8"/>
       <c r="D473" s="7"/>
       <c r="F473" s="2"/>
     </row>
-    <row r="474" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" ht="15.75">
       <c r="A474" s="10"/>
       <c r="C474" s="8"/>
       <c r="D474" s="7"/>
       <c r="F474" s="2"/>
     </row>
-    <row r="475" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" ht="15.75">
       <c r="A475" s="10"/>
       <c r="C475" s="8"/>
       <c r="D475" s="7"/>
       <c r="F475" s="2"/>
     </row>
-    <row r="476" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" ht="15.75">
       <c r="A476" s="10"/>
       <c r="C476" s="8"/>
       <c r="D476" s="7"/>
       <c r="F476" s="2"/>
     </row>
-    <row r="477" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" ht="15.75">
       <c r="A477" s="10"/>
       <c r="C477" s="8"/>
       <c r="D477" s="7"/>
       <c r="F477" s="2"/>
     </row>
-    <row r="478" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" ht="15.75">
       <c r="A478" s="10"/>
       <c r="C478" s="8"/>
       <c r="D478" s="7"/>
       <c r="F478" s="2"/>
     </row>
-    <row r="479" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" ht="15.75">
       <c r="A479" s="10"/>
       <c r="C479" s="8"/>
       <c r="D479" s="7"/>
       <c r="F479" s="2"/>
     </row>
-    <row r="480" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" ht="15.75">
       <c r="A480" s="10"/>
       <c r="C480" s="8"/>
       <c r="D480" s="7"/>
       <c r="F480" s="2"/>
     </row>
-    <row r="481" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" ht="15.75">
       <c r="A481" s="10"/>
       <c r="C481" s="8"/>
       <c r="D481" s="7"/>
       <c r="F481" s="2"/>
     </row>
-    <row r="482" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" ht="15.75">
       <c r="A482" s="10"/>
       <c r="C482" s="8"/>
       <c r="D482" s="7"/>
       <c r="F482" s="2"/>
     </row>
-    <row r="483" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" ht="15.75">
       <c r="A483" s="10"/>
       <c r="C483" s="8"/>
       <c r="D483" s="7"/>
       <c r="F483" s="2"/>
     </row>
-    <row r="484" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" ht="15.75">
       <c r="A484" s="10"/>
       <c r="C484" s="8"/>
       <c r="D484" s="7"/>
       <c r="F484" s="2"/>
     </row>
-    <row r="485" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" ht="15.75">
       <c r="A485" s="10"/>
       <c r="C485" s="8"/>
       <c r="D485" s="7"/>
       <c r="F485" s="2"/>
     </row>
-    <row r="486" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" ht="15.75">
       <c r="A486" s="10"/>
       <c r="C486" s="8"/>
       <c r="D486" s="7"/>
       <c r="F486" s="2"/>
     </row>
-    <row r="487" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" ht="15.75">
       <c r="A487" s="10"/>
       <c r="C487" s="8"/>
       <c r="D487" s="7"/>
       <c r="F487" s="2"/>
     </row>
-    <row r="488" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" ht="15.75">
       <c r="A488" s="10"/>
       <c r="C488" s="8"/>
       <c r="D488" s="7"/>
       <c r="F488" s="2"/>
     </row>
-    <row r="489" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" ht="15.75">
       <c r="A489" s="10"/>
       <c r="C489" s="8"/>
       <c r="D489" s="7"/>
       <c r="F489" s="2"/>
     </row>
-    <row r="490" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" ht="15.75">
       <c r="A490" s="10"/>
       <c r="C490" s="8"/>
       <c r="D490" s="7"/>
       <c r="F490" s="2"/>
     </row>
-    <row r="491" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" ht="15.75">
       <c r="A491" s="10"/>
       <c r="C491" s="8"/>
       <c r="D491" s="7"/>
       <c r="F491" s="2"/>
     </row>
-    <row r="492" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" ht="15.75">
       <c r="A492" s="10"/>
       <c r="C492" s="8"/>
       <c r="D492" s="7"/>
       <c r="F492" s="2"/>
     </row>
-    <row r="493" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" ht="15.75">
       <c r="A493" s="10"/>
       <c r="C493" s="8"/>
       <c r="D493" s="7"/>
       <c r="F493" s="2"/>
     </row>
-    <row r="494" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" ht="15.75">
       <c r="A494" s="10"/>
       <c r="C494" s="8"/>
       <c r="D494" s="7"/>
       <c r="F494" s="2"/>
     </row>
-    <row r="495" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" ht="15.75">
       <c r="A495" s="10"/>
       <c r="C495" s="8"/>
       <c r="D495" s="7"/>
       <c r="F495" s="2"/>
     </row>
-    <row r="496" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" ht="15.75">
       <c r="A496" s="10"/>
       <c r="C496" s="8"/>
       <c r="D496" s="7"/>
       <c r="F496" s="2"/>
     </row>
-    <row r="497" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" ht="15.75">
       <c r="A497" s="10"/>
       <c r="C497" s="8"/>
       <c r="D497" s="7"/>
       <c r="F497" s="2"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6">
       <c r="A498" s="10"/>
       <c r="C498" s="1"/>
       <c r="D498" s="7"/>
       <c r="F498" s="2"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6">
       <c r="A499" s="10"/>
       <c r="C499" s="1"/>
       <c r="D499" s="7"/>
       <c r="F499" s="2"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6">
       <c r="A500" s="10"/>
       <c r="C500" s="1"/>
       <c r="D500" s="7"/>
       <c r="F500" s="2"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6">
       <c r="A501" s="10"/>
       <c r="C501" s="1"/>
       <c r="D501" s="7"/>
       <c r="F501" s="2"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6">
       <c r="A502" s="10"/>
       <c r="C502" s="1"/>
       <c r="D502" s="7"/>
       <c r="F502" s="2"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6">
       <c r="A503" s="10"/>
       <c r="C503" s="1"/>
       <c r="D503" s="7"/>
       <c r="F503" s="2"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6">
       <c r="A504" s="10"/>
       <c r="C504" s="1"/>
       <c r="D504" s="7"/>
       <c r="F504" s="2"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6">
       <c r="A505" s="10"/>
       <c r="C505" s="1"/>
       <c r="D505" s="7"/>
       <c r="F505" s="2"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6">
       <c r="A506" s="10"/>
       <c r="C506" s="1"/>
       <c r="D506" s="7"/>
       <c r="F506" s="2"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6">
       <c r="A507" s="10"/>
       <c r="C507" s="1"/>
       <c r="D507" s="7"/>
       <c r="F507" s="2"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6">
       <c r="A508" s="10"/>
       <c r="C508" s="1"/>
       <c r="D508" s="7"/>
       <c r="F508" s="2"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6">
       <c r="A509" s="10"/>
       <c r="C509" s="1"/>
       <c r="D509" s="7"/>
       <c r="F509" s="2"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6">
       <c r="A510" s="10"/>
       <c r="C510" s="1"/>
       <c r="D510" s="7"/>
       <c r="F510" s="2"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6">
       <c r="A511" s="10"/>
       <c r="C511" s="1"/>
       <c r="D511" s="7"/>
       <c r="F511" s="2"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6">
       <c r="A512" s="10"/>
       <c r="C512" s="1"/>
       <c r="D512" s="7"/>
       <c r="F512" s="2"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6">
       <c r="A513" s="10"/>
       <c r="C513" s="1"/>
       <c r="D513" s="7"/>
       <c r="F513" s="2"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6">
       <c r="A514" s="10"/>
       <c r="C514" s="1"/>
       <c r="D514" s="7"/>
       <c r="F514" s="2"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6">
       <c r="A515" s="10"/>
       <c r="C515" s="1"/>
       <c r="D515" s="7"/>
       <c r="F515" s="2"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6">
       <c r="A516" s="10"/>
       <c r="C516" s="1"/>
       <c r="D516" s="7"/>
       <c r="F516" s="2"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6">
       <c r="A517" s="10"/>
       <c r="C517" s="1"/>
       <c r="D517" s="7"/>
       <c r="F517" s="2"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6">
       <c r="A518" s="10"/>
       <c r="C518" s="1"/>
       <c r="D518" s="7"/>
       <c r="F518" s="2"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6">
       <c r="A519" s="10"/>
       <c r="C519" s="1"/>
       <c r="D519" s="7"/>
       <c r="F519" s="2"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6">
       <c r="A520" s="10"/>
       <c r="C520" s="1"/>
       <c r="D520" s="7"/>
       <c r="F520" s="2"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6">
       <c r="A521" s="10"/>
       <c r="C521" s="1"/>
       <c r="D521" s="7"/>
       <c r="F521" s="2"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6">
       <c r="A522" s="10"/>
       <c r="C522" s="1"/>
       <c r="D522" s="7"/>
       <c r="F522" s="2"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6">
       <c r="A523" s="10"/>
       <c r="C523" s="1"/>
       <c r="D523" s="7"/>
       <c r="F523" s="2"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6">
       <c r="A524" s="10"/>
       <c r="C524" s="1"/>
       <c r="D524" s="7"/>
       <c r="F524" s="2"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6">
       <c r="A525" s="10"/>
       <c r="C525" s="1"/>
       <c r="D525" s="7"/>
       <c r="F525" s="2"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6">
       <c r="A526" s="10"/>
       <c r="C526" s="1"/>
       <c r="D526" s="7"/>
       <c r="F526" s="2"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6">
       <c r="A527" s="10"/>
       <c r="C527" s="1"/>
       <c r="D527" s="7"/>
       <c r="F527" s="2"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6">
       <c r="A528" s="10"/>
       <c r="C528" s="1"/>
       <c r="D528" s="7"/>
       <c r="F528" s="2"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6">
       <c r="A529" s="10"/>
       <c r="C529" s="1"/>
       <c r="D529" s="7"/>
       <c r="F529" s="2"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6">
       <c r="A530" s="10"/>
       <c r="C530" s="1"/>
       <c r="D530" s="7"/>
       <c r="F530" s="2"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6">
       <c r="A531" s="10"/>
       <c r="C531" s="1"/>
       <c r="D531" s="7"/>
       <c r="F531" s="2"/>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6">
       <c r="A532" s="10"/>
       <c r="C532" s="1"/>
       <c r="D532" s="7"/>
       <c r="F532" s="2"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6">
       <c r="A533" s="10"/>
       <c r="C533" s="1"/>
       <c r="D533" s="7"/>
       <c r="F533" s="2"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6">
       <c r="A534" s="10"/>
       <c r="C534" s="1"/>
       <c r="D534" s="7"/>
       <c r="F534" s="2"/>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6">
       <c r="A535" s="10"/>
       <c r="C535" s="1"/>
       <c r="D535" s="7"/>
       <c r="F535" s="2"/>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6">
       <c r="A536" s="10"/>
       <c r="C536" s="1"/>
       <c r="D536" s="7"/>
       <c r="F536" s="2"/>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6">
       <c r="A537" s="10"/>
       <c r="C537" s="1"/>
       <c r="D537" s="7"/>
       <c r="F537" s="2"/>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6">
       <c r="A538" s="10"/>
       <c r="C538" s="1"/>
       <c r="D538" s="7"/>
       <c r="F538" s="2"/>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6">
       <c r="A539" s="10"/>
       <c r="C539" s="1"/>
       <c r="D539" s="7"/>
       <c r="F539" s="2"/>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6">
       <c r="A540" s="10"/>
       <c r="C540" s="1"/>
       <c r="D540" s="7"/>
       <c r="F540" s="2"/>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6">
       <c r="A541" s="10"/>
       <c r="C541" s="1"/>
       <c r="D541" s="7"/>
       <c r="F541" s="2"/>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6">
       <c r="A542" s="10"/>
       <c r="C542" s="1"/>
       <c r="D542" s="7"/>
       <c r="F542" s="2"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6">
       <c r="A543" s="10"/>
       <c r="C543" s="1"/>
       <c r="D543" s="7"/>
       <c r="F543" s="2"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6">
       <c r="A544" s="10"/>
       <c r="C544" s="1"/>
       <c r="D544" s="7"/>
       <c r="F544" s="2"/>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6">
       <c r="A545" s="10"/>
       <c r="C545" s="1"/>
       <c r="D545" s="7"/>
       <c r="F545" s="2"/>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6">
       <c r="A546" s="10"/>
       <c r="C546" s="1"/>
       <c r="D546" s="7"/>
       <c r="F546" s="2"/>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6">
       <c r="A547" s="10"/>
       <c r="C547" s="1"/>
       <c r="D547" s="7"/>
       <c r="F547" s="2"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6">
       <c r="A548" s="10"/>
       <c r="C548" s="1"/>
       <c r="D548" s="7"/>
       <c r="F548" s="2"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6">
       <c r="A549" s="10"/>
       <c r="C549" s="1"/>
       <c r="D549" s="7"/>
       <c r="F549" s="2"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6">
       <c r="A550" s="10"/>
       <c r="C550" s="1"/>
       <c r="D550" s="7"/>
       <c r="F550" s="2"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6">
       <c r="A551" s="10"/>
       <c r="C551" s="1"/>
       <c r="D551" s="7"/>
       <c r="F551" s="2"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6">
       <c r="A552" s="10"/>
       <c r="C552" s="1"/>
       <c r="D552" s="7"/>
       <c r="F552" s="2"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6">
       <c r="A553" s="10"/>
       <c r="C553" s="1"/>
       <c r="D553" s="7"/>
       <c r="F553" s="2"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6">
       <c r="A554" s="10"/>
       <c r="C554" s="1"/>
       <c r="D554" s="7"/>
       <c r="F554" s="2"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6">
       <c r="A555" s="10"/>
       <c r="C555" s="1"/>
       <c r="D555" s="7"/>
       <c r="F555" s="2"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6">
       <c r="A556" s="10"/>
       <c r="C556" s="1"/>
       <c r="D556" s="7"/>
       <c r="F556" s="2"/>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6">
       <c r="A557" s="10"/>
       <c r="C557" s="1"/>
       <c r="D557" s="7"/>
       <c r="F557" s="2"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6">
       <c r="A558" s="10"/>
       <c r="C558" s="1"/>
       <c r="D558" s="7"/>
       <c r="F558" s="2"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6">
       <c r="A559" s="10"/>
       <c r="C559" s="1"/>
       <c r="D559" s="7"/>
       <c r="F559" s="2"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6">
       <c r="A560" s="10"/>
       <c r="C560" s="1"/>
       <c r="D560" s="7"/>
       <c r="F560" s="2"/>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6">
       <c r="A561" s="10"/>
       <c r="C561" s="1"/>
       <c r="D561" s="7"/>
       <c r="F561" s="2"/>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6">
       <c r="A562" s="10"/>
       <c r="C562" s="1"/>
       <c r="D562" s="7"/>
       <c r="F562" s="2"/>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6">
       <c r="A563" s="10"/>
       <c r="C563" s="1"/>
       <c r="D563" s="7"/>
       <c r="F563" s="2"/>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6">
       <c r="A564" s="10"/>
       <c r="C564" s="1"/>
       <c r="D564" s="7"/>
       <c r="F564" s="2"/>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6">
       <c r="A565" s="10"/>
       <c r="C565" s="1"/>
       <c r="D565" s="7"/>
       <c r="F565" s="2"/>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6">
       <c r="A566" s="10"/>
       <c r="C566" s="1"/>
       <c r="D566" s="7"/>
       <c r="F566" s="2"/>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6">
       <c r="A567" s="10"/>
       <c r="C567" s="1"/>
       <c r="D567" s="7"/>
       <c r="F567" s="2"/>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6">
       <c r="A568" s="10"/>
       <c r="C568" s="1"/>
       <c r="D568" s="7"/>
       <c r="F568" s="2"/>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6">
       <c r="A569" s="10"/>
       <c r="C569" s="1"/>
       <c r="D569" s="7"/>
       <c r="F569" s="2"/>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6">
       <c r="A570" s="10"/>
       <c r="C570" s="1"/>
       <c r="D570" s="7"/>
       <c r="F570" s="2"/>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6">
       <c r="A571" s="10"/>
       <c r="C571" s="1"/>
       <c r="D571" s="7"/>
       <c r="F571" s="2"/>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6">
       <c r="A572" s="10"/>
       <c r="C572" s="1"/>
       <c r="D572" s="7"/>
       <c r="F572" s="2"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6">
       <c r="A573" s="10"/>
       <c r="C573" s="1"/>
       <c r="D573" s="7"/>
       <c r="F573" s="2"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6">
       <c r="A574" s="10"/>
       <c r="C574" s="1"/>
       <c r="D574" s="7"/>
       <c r="F574" s="2"/>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6">
       <c r="A575" s="10"/>
       <c r="C575" s="1"/>
       <c r="D575" s="7"/>
       <c r="F575" s="2"/>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6">
       <c r="A576" s="10"/>
       <c r="C576" s="1"/>
       <c r="D576" s="7"/>
       <c r="F576" s="2"/>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6">
       <c r="A577" s="10"/>
       <c r="C577" s="1"/>
       <c r="D577" s="7"/>
       <c r="F577" s="2"/>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6">
       <c r="A578" s="10"/>
       <c r="C578" s="1"/>
       <c r="D578" s="7"/>
       <c r="F578" s="2"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6">
       <c r="A579" s="10"/>
       <c r="C579" s="1"/>
       <c r="D579" s="7"/>
       <c r="F579" s="2"/>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6">
       <c r="A580" s="10"/>
       <c r="C580" s="1"/>
       <c r="D580" s="7"/>
       <c r="F580" s="2"/>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6">
       <c r="A581" s="10"/>
       <c r="C581" s="1"/>
       <c r="D581" s="7"/>
       <c r="F581" s="2"/>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6">
       <c r="A582" s="10"/>
       <c r="C582" s="1"/>
       <c r="D582" s="7"/>
       <c r="F582" s="2"/>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6">
       <c r="A583" s="10"/>
       <c r="C583" s="1"/>
       <c r="D583" s="7"/>
       <c r="F583" s="2"/>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6">
       <c r="A584" s="10"/>
       <c r="C584" s="1"/>
       <c r="D584" s="7"/>
       <c r="F584" s="2"/>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6">
       <c r="A585" s="10"/>
       <c r="C585" s="1"/>
       <c r="D585" s="7"/>
       <c r="F585" s="2"/>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6">
       <c r="A586" s="10"/>
       <c r="C586" s="1"/>
       <c r="D586" s="7"/>
       <c r="F586" s="2"/>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6">
       <c r="A587" s="10"/>
       <c r="C587" s="1"/>
       <c r="D587" s="7"/>
       <c r="F587" s="2"/>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6">
       <c r="A588" s="10"/>
       <c r="C588" s="1"/>
       <c r="D588" s="7"/>
       <c r="F588" s="2"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6">
       <c r="A589" s="10"/>
       <c r="C589" s="1"/>
       <c r="D589" s="7"/>
       <c r="F589" s="2"/>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6">
       <c r="A590" s="10"/>
       <c r="C590" s="1"/>
       <c r="D590" s="7"/>
       <c r="F590" s="2"/>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6">
       <c r="A591" s="10"/>
       <c r="C591" s="1"/>
       <c r="D591" s="7"/>
       <c r="F591" s="2"/>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6">
       <c r="A592" s="10"/>
       <c r="C592" s="1"/>
       <c r="D592" s="7"/>
       <c r="F592" s="2"/>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6">
       <c r="A593" s="10"/>
       <c r="C593" s="1"/>
       <c r="D593" s="7"/>
       <c r="F593" s="2"/>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6">
       <c r="A594" s="10"/>
       <c r="C594" s="1"/>
       <c r="D594" s="7"/>
       <c r="F594" s="2"/>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6">
       <c r="A595" s="10"/>
       <c r="C595" s="1"/>
       <c r="D595" s="7"/>
       <c r="F595" s="2"/>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6">
       <c r="A596" s="10"/>
       <c r="C596" s="1"/>
       <c r="D596" s="7"/>
       <c r="F596" s="2"/>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6">
       <c r="A597" s="10"/>
       <c r="C597" s="1"/>
       <c r="D597" s="7"/>
       <c r="F597" s="2"/>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6">
       <c r="A598" s="10"/>
       <c r="C598" s="1"/>
       <c r="D598" s="7"/>
       <c r="F598" s="2"/>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6">
       <c r="A599" s="10"/>
       <c r="C599" s="1"/>
       <c r="D599" s="7"/>
       <c r="F599" s="2"/>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6">
       <c r="A600" s="10"/>
       <c r="C600" s="1"/>
       <c r="D600" s="7"/>
       <c r="F600" s="2"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6">
       <c r="A601" s="10"/>
       <c r="C601" s="1"/>
       <c r="D601" s="7"/>
       <c r="F601" s="2"/>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6">
       <c r="A602" s="10"/>
       <c r="C602" s="1"/>
       <c r="D602" s="7"/>
       <c r="F602" s="2"/>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6">
       <c r="A603" s="10"/>
       <c r="C603" s="1"/>
       <c r="D603" s="7"/>
       <c r="F603" s="2"/>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6">
       <c r="A604" s="10"/>
       <c r="C604" s="1"/>
       <c r="D604" s="7"/>
       <c r="F604" s="2"/>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6">
       <c r="A605" s="10"/>
       <c r="C605" s="1"/>
       <c r="D605" s="7"/>
       <c r="F605" s="2"/>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6">
       <c r="A606" s="10"/>
       <c r="C606" s="1"/>
       <c r="D606" s="7"/>
       <c r="F606" s="2"/>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6">
       <c r="A607" s="10"/>
       <c r="C607" s="1"/>
       <c r="D607" s="7"/>
       <c r="F607" s="2"/>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6">
       <c r="A608" s="10"/>
       <c r="C608" s="1"/>
       <c r="D608" s="7"/>
       <c r="F608" s="2"/>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6">
       <c r="A609" s="10"/>
       <c r="C609" s="1"/>
       <c r="D609" s="7"/>
       <c r="F609" s="2"/>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6">
       <c r="A610" s="10"/>
       <c r="C610" s="1"/>
       <c r="D610" s="7"/>
       <c r="F610" s="2"/>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6">
       <c r="A611" s="10"/>
       <c r="C611" s="1"/>
       <c r="D611" s="7"/>
       <c r="F611" s="2"/>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6">
       <c r="A612" s="10"/>
       <c r="C612" s="1"/>
       <c r="D612" s="7"/>
       <c r="F612" s="2"/>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6">
       <c r="A613" s="10"/>
       <c r="C613" s="1"/>
       <c r="D613" s="7"/>
       <c r="F613" s="2"/>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6">
       <c r="A614" s="10"/>
       <c r="C614" s="1"/>
       <c r="D614" s="7"/>
       <c r="F614" s="2"/>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6">
       <c r="A615" s="10"/>
       <c r="C615" s="1"/>
       <c r="D615" s="7"/>
       <c r="F615" s="2"/>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6">
       <c r="A616" s="10"/>
       <c r="C616" s="1"/>
       <c r="D616" s="7"/>
       <c r="F616" s="2"/>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6">
       <c r="A617" s="10"/>
       <c r="C617" s="1"/>
       <c r="D617" s="7"/>
       <c r="F617" s="2"/>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6">
       <c r="A618" s="10"/>
       <c r="C618" s="1"/>
       <c r="D618" s="7"/>
       <c r="F618" s="2"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6">
       <c r="A619" s="10"/>
       <c r="C619" s="1"/>
       <c r="D619" s="7"/>
       <c r="F619" s="2"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6">
       <c r="A620" s="10"/>
       <c r="C620" s="1"/>
       <c r="D620" s="7"/>
       <c r="F620" s="2"/>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6">
       <c r="A621" s="10"/>
       <c r="C621" s="1"/>
       <c r="D621" s="7"/>
       <c r="F621" s="2"/>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6">
       <c r="A622" s="10"/>
       <c r="C622" s="1"/>
       <c r="D622" s="7"/>
       <c r="F622" s="2"/>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6">
       <c r="A623" s="10"/>
       <c r="C623" s="1"/>
       <c r="D623" s="7"/>
       <c r="F623" s="2"/>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6">
       <c r="A624" s="10"/>
       <c r="C624" s="1"/>
       <c r="D624" s="7"/>
       <c r="F624" s="2"/>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6">
       <c r="A625" s="10"/>
       <c r="C625" s="1"/>
       <c r="D625" s="7"/>
       <c r="F625" s="2"/>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6">
       <c r="A626" s="10"/>
       <c r="C626" s="1"/>
       <c r="D626" s="7"/>
       <c r="F626" s="2"/>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6">
       <c r="A627" s="10"/>
       <c r="C627" s="1"/>
       <c r="D627" s="7"/>
       <c r="F627" s="2"/>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6">
       <c r="A628" s="10"/>
       <c r="C628" s="1"/>
       <c r="D628" s="7"/>
       <c r="F628" s="2"/>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6">
       <c r="A629" s="10"/>
       <c r="C629" s="1"/>
       <c r="D629" s="7"/>
       <c r="F629" s="2"/>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6">
       <c r="A630" s="10"/>
       <c r="C630" s="1"/>
       <c r="D630" s="7"/>
       <c r="F630" s="2"/>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6">
       <c r="A631" s="10"/>
       <c r="C631" s="1"/>
       <c r="D631" s="7"/>
       <c r="F631" s="2"/>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6">
       <c r="A632" s="10"/>
       <c r="C632" s="1"/>
       <c r="D632" s="7"/>
       <c r="F632" s="2"/>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6">
       <c r="A633" s="10"/>
       <c r="C633" s="1"/>
       <c r="D633" s="7"/>
       <c r="F633" s="2"/>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6">
       <c r="A634" s="10"/>
       <c r="C634" s="1"/>
       <c r="D634" s="7"/>
       <c r="F634" s="2"/>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6">
       <c r="A635" s="10"/>
       <c r="C635" s="1"/>
       <c r="D635" s="7"/>
       <c r="F635" s="2"/>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6">
       <c r="A636" s="10"/>
       <c r="C636" s="1"/>
       <c r="D636" s="7"/>
       <c r="F636" s="2"/>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6">
       <c r="A637" s="10"/>
       <c r="C637" s="1"/>
       <c r="D637" s="7"/>
       <c r="F637" s="2"/>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6">
       <c r="A638" s="10"/>
       <c r="C638" s="1"/>
       <c r="D638" s="7"/>
       <c r="F638" s="2"/>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6">
       <c r="A639" s="10"/>
       <c r="C639" s="1"/>
       <c r="D639" s="7"/>
       <c r="F639" s="2"/>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6">
       <c r="A640" s="10"/>
       <c r="C640" s="1"/>
       <c r="D640" s="7"/>
       <c r="F640" s="2"/>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6">
       <c r="A641" s="10"/>
       <c r="C641" s="1"/>
       <c r="D641" s="7"/>
       <c r="F641" s="2"/>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6">
       <c r="A642" s="10"/>
       <c r="C642" s="1"/>
       <c r="D642" s="7"/>
       <c r="F642" s="2"/>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6">
       <c r="A643" s="10"/>
       <c r="C643" s="1"/>
       <c r="D643" s="7"/>
       <c r="F643" s="2"/>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6">
       <c r="A644" s="10"/>
       <c r="C644" s="1"/>
       <c r="D644" s="7"/>
       <c r="F644" s="2"/>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6">
       <c r="A645" s="10"/>
       <c r="C645" s="1"/>
       <c r="D645" s="7"/>
       <c r="F645" s="2"/>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6">
       <c r="A646" s="10"/>
       <c r="C646" s="1"/>
       <c r="D646" s="7"/>
       <c r="F646" s="2"/>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6">
       <c r="A647" s="10"/>
       <c r="C647" s="1"/>
       <c r="D647" s="7"/>
       <c r="F647" s="2"/>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6">
       <c r="A648" s="10"/>
       <c r="C648" s="1"/>
       <c r="D648" s="7"/>
       <c r="F648" s="2"/>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6">
       <c r="A649" s="10"/>
       <c r="C649" s="1"/>
       <c r="D649" s="7"/>
       <c r="F649" s="2"/>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6">
       <c r="A650" s="10"/>
       <c r="C650" s="1"/>
       <c r="D650" s="7"/>
       <c r="F650" s="2"/>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6">
       <c r="A651" s="10"/>
       <c r="C651" s="1"/>
       <c r="D651" s="7"/>
       <c r="F651" s="2"/>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6">
       <c r="A652" s="10"/>
       <c r="C652" s="1"/>
       <c r="D652" s="7"/>
       <c r="F652" s="2"/>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6">
       <c r="A653" s="10"/>
       <c r="C653" s="1"/>
       <c r="D653" s="7"/>
       <c r="F653" s="2"/>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6">
       <c r="A654" s="10"/>
       <c r="C654" s="1"/>
       <c r="D654" s="7"/>
       <c r="F654" s="2"/>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6">
       <c r="A655" s="10"/>
       <c r="C655" s="1"/>
       <c r="D655" s="7"/>
       <c r="F655" s="2"/>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6">
       <c r="A656" s="10"/>
       <c r="C656" s="1"/>
       <c r="D656" s="7"/>
       <c r="F656" s="2"/>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6">
       <c r="A657" s="10"/>
       <c r="C657" s="1"/>
       <c r="D657" s="7"/>
       <c r="F657" s="2"/>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6">
       <c r="A658" s="10"/>
       <c r="C658" s="1"/>
       <c r="D658" s="7"/>
       <c r="F658" s="2"/>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6">
       <c r="A659" s="10"/>
       <c r="C659" s="1"/>
       <c r="D659" s="7"/>
       <c r="F659" s="2"/>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6">
       <c r="A660" s="10"/>
       <c r="C660" s="1"/>
       <c r="D660" s="7"/>
       <c r="F660" s="2"/>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6">
       <c r="A661" s="10"/>
       <c r="C661" s="1"/>
       <c r="D661" s="7"/>
       <c r="F661" s="2"/>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6">
       <c r="A662" s="10"/>
       <c r="C662" s="1"/>
       <c r="D662" s="7"/>
       <c r="F662" s="2"/>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6">
       <c r="A663" s="10"/>
       <c r="C663" s="1"/>
       <c r="D663" s="7"/>
       <c r="F663" s="2"/>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6">
       <c r="A664" s="10"/>
       <c r="C664" s="1"/>
       <c r="D664" s="7"/>
       <c r="F664" s="2"/>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6">
       <c r="A665" s="10"/>
       <c r="C665" s="1"/>
       <c r="D665" s="7"/>
       <c r="F665" s="2"/>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6">
       <c r="A666" s="10"/>
       <c r="C666" s="1"/>
       <c r="D666" s="7"/>
       <c r="F666" s="2"/>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6">
       <c r="A667" s="10"/>
       <c r="C667" s="1"/>
       <c r="D667" s="7"/>
       <c r="F667" s="2"/>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6">
       <c r="A668" s="10"/>
       <c r="C668" s="1"/>
       <c r="D668" s="7"/>
       <c r="F668" s="2"/>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6">
       <c r="A669" s="10"/>
       <c r="C669" s="1"/>
       <c r="D669" s="7"/>
       <c r="F669" s="2"/>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6">
       <c r="A670" s="10"/>
       <c r="C670" s="1"/>
       <c r="D670" s="7"/>
       <c r="F670" s="2"/>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6">
       <c r="A671" s="10"/>
       <c r="C671" s="1"/>
       <c r="D671" s="7"/>
       <c r="F671" s="2"/>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6">
       <c r="A672" s="10"/>
       <c r="C672" s="1"/>
       <c r="D672" s="7"/>
       <c r="F672" s="2"/>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6">
       <c r="A673" s="10"/>
       <c r="C673" s="1"/>
       <c r="D673" s="7"/>
       <c r="F673" s="2"/>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6">
       <c r="A674" s="10"/>
       <c r="C674" s="1"/>
       <c r="D674" s="7"/>
       <c r="F674" s="2"/>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6">
       <c r="A675" s="10"/>
       <c r="C675" s="1"/>
       <c r="D675" s="7"/>
       <c r="F675" s="2"/>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6">
       <c r="A676" s="10"/>
       <c r="C676" s="1"/>
       <c r="D676" s="7"/>
       <c r="F676" s="2"/>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6">
       <c r="A677" s="10"/>
       <c r="C677" s="1"/>
       <c r="D677" s="7"/>
       <c r="F677" s="2"/>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6">
       <c r="A678" s="10"/>
       <c r="C678" s="1"/>
       <c r="D678" s="7"/>
       <c r="F678" s="2"/>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6">
       <c r="A679" s="10"/>
       <c r="C679" s="1"/>
       <c r="D679" s="7"/>
       <c r="F679" s="2"/>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6">
       <c r="A680" s="10"/>
       <c r="C680" s="1"/>
       <c r="D680" s="7"/>
       <c r="F680" s="2"/>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6">
       <c r="A681" s="10"/>
       <c r="C681" s="1"/>
       <c r="D681" s="7"/>
       <c r="F681" s="2"/>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6">
       <c r="A682" s="10"/>
       <c r="C682" s="1"/>
       <c r="D682" s="7"/>
       <c r="F682" s="2"/>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6">
       <c r="A683" s="10"/>
       <c r="C683" s="1"/>
       <c r="D683" s="7"/>
       <c r="F683" s="2"/>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6">
       <c r="A684" s="10"/>
       <c r="C684" s="1"/>
       <c r="D684" s="7"/>
       <c r="F684" s="2"/>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6">
       <c r="A685" s="10"/>
       <c r="C685" s="1"/>
       <c r="D685" s="7"/>
       <c r="F685" s="2"/>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6">
       <c r="A686" s="10"/>
       <c r="C686" s="1"/>
       <c r="D686" s="7"/>
       <c r="F686" s="2"/>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6">
       <c r="A687" s="10"/>
       <c r="C687" s="1"/>
       <c r="D687" s="7"/>
       <c r="F687" s="2"/>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6">
       <c r="A688" s="10"/>
       <c r="C688" s="1"/>
       <c r="D688" s="7"/>
       <c r="F688" s="2"/>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6">
       <c r="A689" s="10"/>
       <c r="C689" s="1"/>
       <c r="D689" s="7"/>
       <c r="F689" s="2"/>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6">
       <c r="A690" s="10"/>
       <c r="C690" s="1"/>
       <c r="D690" s="7"/>
       <c r="F690" s="2"/>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6">
       <c r="A691" s="10"/>
       <c r="C691" s="1"/>
       <c r="D691" s="7"/>
       <c r="F691" s="2"/>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6">
       <c r="A692" s="10"/>
       <c r="C692" s="1"/>
       <c r="D692" s="7"/>
       <c r="F692" s="2"/>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6">
       <c r="A693" s="10"/>
       <c r="C693" s="1"/>
       <c r="D693" s="7"/>
       <c r="F693" s="2"/>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6">
       <c r="A694" s="10"/>
       <c r="C694" s="1"/>
       <c r="D694" s="7"/>
       <c r="F694" s="2"/>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6">
       <c r="A695" s="10"/>
       <c r="C695" s="1"/>
       <c r="D695" s="7"/>
       <c r="F695" s="2"/>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6">
       <c r="A696" s="10"/>
       <c r="C696" s="1"/>
       <c r="D696" s="7"/>
       <c r="F696" s="2"/>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6">
       <c r="A697" s="10"/>
       <c r="C697" s="1"/>
       <c r="D697" s="7"/>
       <c r="F697" s="2"/>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6">
       <c r="A698" s="10"/>
       <c r="C698" s="1"/>
       <c r="D698" s="7"/>
       <c r="F698" s="2"/>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6">
       <c r="A699" s="10"/>
       <c r="C699" s="1"/>
       <c r="D699" s="7"/>
       <c r="F699" s="2"/>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6">
       <c r="A700" s="10"/>
       <c r="C700" s="1"/>
       <c r="D700" s="7"/>
       <c r="F700" s="2"/>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6">
       <c r="A701" s="10"/>
       <c r="C701" s="1"/>
       <c r="D701" s="7"/>
       <c r="F701" s="2"/>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6">
       <c r="A702" s="10"/>
       <c r="C702" s="1"/>
       <c r="D702" s="7"/>
       <c r="F702" s="2"/>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6">
       <c r="A703" s="10"/>
       <c r="C703" s="1"/>
       <c r="D703" s="7"/>
       <c r="F703" s="2"/>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6">
       <c r="A704" s="10"/>
       <c r="C704" s="1"/>
       <c r="D704" s="7"/>
       <c r="F704" s="2"/>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6">
       <c r="A705" s="10"/>
       <c r="C705" s="1"/>
       <c r="D705" s="7"/>
       <c r="F705" s="2"/>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6">
       <c r="A706" s="10"/>
       <c r="C706" s="1"/>
       <c r="D706" s="7"/>
       <c r="F706" s="2"/>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6">
       <c r="A707" s="10"/>
       <c r="C707" s="1"/>
       <c r="D707" s="7"/>
       <c r="F707" s="2"/>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6">
       <c r="A708" s="10"/>
       <c r="C708" s="1"/>
       <c r="D708" s="7"/>
       <c r="F708" s="2"/>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6">
       <c r="A709" s="10"/>
       <c r="C709" s="1"/>
       <c r="D709" s="7"/>
       <c r="F709" s="2"/>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6">
       <c r="A710" s="10"/>
       <c r="C710" s="1"/>
       <c r="D710" s="7"/>
       <c r="F710" s="2"/>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6">
       <c r="A711" s="10"/>
       <c r="C711" s="1"/>
       <c r="D711" s="7"/>
       <c r="F711" s="2"/>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6">
       <c r="A712" s="10"/>
       <c r="C712" s="1"/>
       <c r="D712" s="7"/>
       <c r="F712" s="2"/>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6">
       <c r="A713" s="10"/>
       <c r="C713" s="1"/>
       <c r="D713" s="7"/>
       <c r="F713" s="2"/>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6">
       <c r="A714" s="10"/>
       <c r="C714" s="1"/>
       <c r="D714" s="7"/>
       <c r="F714" s="2"/>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6">
       <c r="A715" s="10"/>
       <c r="C715" s="1"/>
       <c r="D715" s="7"/>
       <c r="F715" s="2"/>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6">
       <c r="A716" s="10"/>
       <c r="C716" s="1"/>
       <c r="D716" s="7"/>
       <c r="F716" s="2"/>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6">
       <c r="A717" s="10"/>
       <c r="C717" s="1"/>
       <c r="D717" s="7"/>
       <c r="F717" s="2"/>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6">
       <c r="A718" s="10"/>
       <c r="C718" s="1"/>
       <c r="D718" s="7"/>
       <c r="F718" s="2"/>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6">
       <c r="A719" s="10"/>
       <c r="C719" s="1"/>
       <c r="D719" s="7"/>
       <c r="F719" s="2"/>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6">
       <c r="A720" s="6"/>
       <c r="C720" s="1"/>
       <c r="F720" s="2"/>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6">
       <c r="C721" s="1"/>
       <c r="F721" s="2"/>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6">
       <c r="C722" s="1"/>
       <c r="F722" s="2"/>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6">
       <c r="C723" s="1"/>
       <c r="F723" s="2"/>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6">
       <c r="A724" s="6"/>
       <c r="C724" s="1"/>
       <c r="F724" s="2"/>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6">
       <c r="C725" s="1"/>
       <c r="F725" s="2"/>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6">
       <c r="C726" s="1"/>
       <c r="F726" s="2"/>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6">
       <c r="C727" s="1"/>
       <c r="F727" s="2"/>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6">
       <c r="C728" s="1"/>
       <c r="F728" s="2"/>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6">
       <c r="C729" s="1"/>
       <c r="F729" s="2"/>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6">
       <c r="C730" s="1"/>
       <c r="F730" s="2"/>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6">
       <c r="C731" s="1"/>
       <c r="F731" s="2"/>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6">
       <c r="C732" s="1"/>
       <c r="F732" s="2"/>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6">
       <c r="A733" s="6"/>
       <c r="C733" s="1"/>
       <c r="F733" s="2"/>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6">
       <c r="C734" s="1"/>
       <c r="F734" s="2"/>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6">
       <c r="C735" s="1"/>
       <c r="F735" s="2"/>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6">
       <c r="C736" s="1"/>
       <c r="F736" s="2"/>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6">
       <c r="C737" s="1"/>
       <c r="F737" s="2"/>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6">
       <c r="C738" s="1"/>
       <c r="F738" s="2"/>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6">
       <c r="A739" s="6"/>
       <c r="C739" s="1"/>
       <c r="F739" s="2"/>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6">
       <c r="C740" s="1"/>
       <c r="F740" s="2"/>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6">
       <c r="C741" s="1"/>
       <c r="F741" s="2"/>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6">
       <c r="C742" s="1"/>
       <c r="F742" s="2"/>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6">
       <c r="C743" s="1"/>
       <c r="F743" s="2"/>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6">
       <c r="C744" s="1"/>
       <c r="F744" s="2"/>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6">
       <c r="C745" s="1"/>
       <c r="F745" s="2"/>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6">
       <c r="A746" s="6"/>
       <c r="C746" s="1"/>
       <c r="F746" s="2"/>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6">
       <c r="C747" s="1"/>
       <c r="F747" s="2"/>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6">
       <c r="C748" s="1"/>
       <c r="F748" s="2"/>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6">
       <c r="C749" s="1"/>
       <c r="F749" s="2"/>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6">
       <c r="C750" s="1"/>
       <c r="F750" s="2"/>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6">
       <c r="A751" s="6"/>
       <c r="C751" s="1"/>
       <c r="F751" s="2"/>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6">
       <c r="C752" s="1"/>
       <c r="F752" s="2"/>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6">
       <c r="C753" s="1"/>
       <c r="F753" s="2"/>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6">
       <c r="C754" s="1"/>
       <c r="F754" s="2"/>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6">
       <c r="C755" s="1"/>
       <c r="F755" s="2"/>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6">
       <c r="C756" s="1"/>
       <c r="F756" s="2"/>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6">
       <c r="C757" s="1"/>
       <c r="F757" s="2"/>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6">
       <c r="C758" s="1"/>
       <c r="D758" s="2"/>
       <c r="F758" s="2"/>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6">
       <c r="C759" s="1"/>
       <c r="D759" s="2"/>
       <c r="F759" s="2"/>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6">
       <c r="C760" s="1"/>
       <c r="D760" s="2"/>
       <c r="F760" s="2"/>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6">
       <c r="C761" s="1"/>
       <c r="D761" s="2"/>
       <c r="F761" s="2"/>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6">
       <c r="C762" s="1"/>
       <c r="D762" s="2"/>
       <c r="F762" s="2"/>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6">
       <c r="A763" s="6"/>
       <c r="C763" s="1"/>
       <c r="D763" s="2"/>
       <c r="F763" s="2"/>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6">
       <c r="C764" s="1"/>
       <c r="D764" s="2"/>
       <c r="F764" s="2"/>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6">
       <c r="C765" s="1"/>
       <c r="D765" s="2"/>
       <c r="F765" s="2"/>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6">
       <c r="C766" s="1"/>
       <c r="D766" s="2"/>
       <c r="F766" s="2"/>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6">
       <c r="A767" s="6"/>
       <c r="C767" s="1"/>
       <c r="D767" s="2"/>
       <c r="F767" s="2"/>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6">
       <c r="C768" s="1"/>
       <c r="D768" s="2"/>
       <c r="F768" s="2"/>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6">
       <c r="A769" s="6"/>
       <c r="C769" s="1"/>
       <c r="D769" s="2"/>
       <c r="F769" s="2"/>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6">
       <c r="C770" s="1"/>
       <c r="D770" s="2"/>
       <c r="F770" s="2"/>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6">
       <c r="C771" s="1"/>
       <c r="D771" s="2"/>
       <c r="F771" s="2"/>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6">
       <c r="C772" s="1"/>
       <c r="D772" s="2"/>
       <c r="F772" s="2"/>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6">
       <c r="C773" s="1"/>
       <c r="D773" s="2"/>
       <c r="F773" s="2"/>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6">
       <c r="C774" s="1"/>
       <c r="D774" s="2"/>
       <c r="F774" s="2"/>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6">
       <c r="C775" s="1"/>
       <c r="D775" s="2"/>
       <c r="F775" s="2"/>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6">
       <c r="A776" s="6"/>
       <c r="C776" s="1"/>
       <c r="D776" s="2"/>
       <c r="F776" s="2"/>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6">
       <c r="C777" s="1"/>
       <c r="D777" s="2"/>
       <c r="F777" s="2"/>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6">
       <c r="C778" s="1"/>
       <c r="D778" s="2"/>
       <c r="F778" s="2"/>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6">
       <c r="C779" s="1"/>
       <c r="D779" s="2"/>
       <c r="F779" s="2"/>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6">
       <c r="C780" s="1"/>
       <c r="D780" s="2"/>
       <c r="F780" s="2"/>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6">
       <c r="C781" s="1"/>
       <c r="D781" s="2"/>
       <c r="F781" s="2"/>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6">
       <c r="C782" s="1"/>
       <c r="D782" s="2"/>
       <c r="F782" s="2"/>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6">
       <c r="C783" s="1"/>
       <c r="D783" s="2"/>
       <c r="F783" s="2"/>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6">
       <c r="C784" s="1"/>
       <c r="D784" s="2"/>
       <c r="F784" s="2"/>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6">
       <c r="C785" s="1"/>
       <c r="D785" s="2"/>
       <c r="F785" s="2"/>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6">
       <c r="C786" s="1"/>
       <c r="D786" s="2"/>
       <c r="F786" s="2"/>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6">
       <c r="C787" s="1"/>
       <c r="D787" s="2"/>
       <c r="F787" s="2"/>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6">
       <c r="C788" s="1"/>
       <c r="D788" s="2"/>
       <c r="F788" s="2"/>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6">
       <c r="C789" s="1"/>
       <c r="D789" s="2"/>
       <c r="F789" s="2"/>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6">
       <c r="C790" s="1"/>
       <c r="D790" s="2"/>
       <c r="F790" s="2"/>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6">
       <c r="C791" s="1"/>
       <c r="D791" s="2"/>
       <c r="F791" s="2"/>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6">
       <c r="C792" s="1"/>
       <c r="D792" s="2"/>
       <c r="F792" s="2"/>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6">
       <c r="C793" s="1"/>
       <c r="D793" s="2"/>
       <c r="F793" s="2"/>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6">
       <c r="C794" s="1"/>
       <c r="D794" s="2"/>
       <c r="F794" s="2"/>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6">
       <c r="C795" s="1"/>
       <c r="D795" s="2"/>
       <c r="F795" s="2"/>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6">
       <c r="C796" s="1"/>
       <c r="D796" s="2"/>
       <c r="F796" s="2"/>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6">
       <c r="A797" s="6"/>
       <c r="C797" s="1"/>
       <c r="D797" s="2"/>
       <c r="F797" s="2"/>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6">
       <c r="C798" s="1"/>
       <c r="D798" s="2"/>
       <c r="F798" s="2"/>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6">
       <c r="C799" s="1"/>
       <c r="D799" s="2"/>
       <c r="F799" s="2"/>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6">
       <c r="A800" s="6"/>
       <c r="C800" s="1"/>
       <c r="D800" s="2"/>
       <c r="F800" s="2"/>
     </row>
-    <row r="801" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:6">
       <c r="C801" s="1"/>
       <c r="D801" s="2"/>
       <c r="F801" s="2"/>
     </row>
-    <row r="802" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:6">
       <c r="C802" s="1"/>
       <c r="D802" s="2"/>
       <c r="F802" s="2"/>
     </row>
-    <row r="803" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:6">
       <c r="C803" s="1"/>
       <c r="D803" s="2"/>
       <c r="F803" s="2"/>
     </row>
-    <row r="804" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:6">
       <c r="C804" s="1"/>
       <c r="D804" s="2"/>
       <c r="F804" s="2"/>
     </row>
-    <row r="805" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:6">
       <c r="C805" s="1"/>
       <c r="D805" s="2"/>
       <c r="F805" s="2"/>
     </row>
-    <row r="806" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:6">
       <c r="C806" s="1"/>
       <c r="D806" s="2"/>
       <c r="F806" s="2"/>
     </row>
-    <row r="807" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:6">
       <c r="C807" s="1"/>
       <c r="D807" s="2"/>
       <c r="F807" s="2"/>
     </row>
-    <row r="808" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:6">
       <c r="C808" s="1"/>
       <c r="D808" s="2"/>
       <c r="F808" s="2"/>
     </row>
-    <row r="809" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:6">
       <c r="C809" s="1"/>
       <c r="D809" s="2"/>
       <c r="F809" s="2"/>
     </row>
-    <row r="810" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:6">
       <c r="C810" s="1"/>
       <c r="D810" s="2"/>
       <c r="F810" s="2"/>
     </row>
-    <row r="811" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:6">
       <c r="C811" s="1"/>
       <c r="D811" s="2"/>
       <c r="F811" s="2"/>
     </row>
-    <row r="812" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:6">
       <c r="C812" s="1"/>
       <c r="D812" s="2"/>
       <c r="F812" s="2"/>
     </row>
-    <row r="813" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:6">
       <c r="C813" s="1"/>
       <c r="D813" s="2"/>
       <c r="F813" s="2"/>
     </row>
-    <row r="814" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:6">
       <c r="C814" s="1"/>
       <c r="D814" s="2"/>
       <c r="F814" s="2"/>
     </row>
-    <row r="815" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:6">
       <c r="C815" s="1"/>
       <c r="D815" s="2"/>
       <c r="F815" s="2"/>
     </row>
-    <row r="816" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:6">
       <c r="C816" s="1"/>
       <c r="D816" s="2"/>
       <c r="F816" s="2"/>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6">
       <c r="C817" s="1"/>
       <c r="D817" s="2"/>
       <c r="F817" s="2"/>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6">
       <c r="C818" s="1"/>
       <c r="D818" s="2"/>
       <c r="F818" s="2"/>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6">
       <c r="C819" s="1"/>
       <c r="D819" s="2"/>
       <c r="F819" s="2"/>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6">
       <c r="C820" s="1"/>
       <c r="D820" s="2"/>
       <c r="F820" s="2"/>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6">
       <c r="C821" s="1"/>
       <c r="D821" s="2"/>
       <c r="F821" s="2"/>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6">
       <c r="C822" s="1"/>
       <c r="D822" s="2"/>
       <c r="F822" s="2"/>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6">
       <c r="C823" s="1"/>
       <c r="D823" s="2"/>
       <c r="F823" s="2"/>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6">
       <c r="A824" s="6"/>
       <c r="C824" s="1"/>
       <c r="D824" s="2"/>
       <c r="F824" s="2"/>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6">
       <c r="C825" s="1"/>
       <c r="D825" s="2"/>
       <c r="F825" s="2"/>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6">
       <c r="C826" s="1"/>
       <c r="D826" s="2"/>
       <c r="F826" s="2"/>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6">
       <c r="C827" s="1"/>
       <c r="D827" s="2"/>
       <c r="F827" s="2"/>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6">
       <c r="C828" s="1"/>
       <c r="D828" s="2"/>
       <c r="F828" s="2"/>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6">
       <c r="C829" s="1"/>
       <c r="D829" s="2"/>
       <c r="F829" s="2"/>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6">
       <c r="C830" s="1"/>
       <c r="D830" s="2"/>
       <c r="F830" s="2"/>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6">
       <c r="A831" s="6"/>
       <c r="C831" s="1"/>
       <c r="D831" s="2"/>
       <c r="F831" s="2"/>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6">
       <c r="C832" s="1"/>
       <c r="D832" s="2"/>
       <c r="F832" s="2"/>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6">
       <c r="C833" s="1"/>
       <c r="D833" s="2"/>
       <c r="F833" s="2"/>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6">
       <c r="C834" s="1"/>
       <c r="D834" s="2"/>
       <c r="F834" s="2"/>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6">
       <c r="C835" s="1"/>
       <c r="D835" s="2"/>
       <c r="F835" s="2"/>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6">
       <c r="A836" s="6"/>
       <c r="C836" s="1"/>
       <c r="D836" s="2"/>
       <c r="F836" s="2"/>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6">
       <c r="C837" s="1"/>
       <c r="D837" s="2"/>
       <c r="F837" s="2"/>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6">
       <c r="C838" s="1"/>
       <c r="D838" s="2"/>
       <c r="F838" s="2"/>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6">
       <c r="A839" s="6"/>
       <c r="C839" s="1"/>
       <c r="D839" s="2"/>
       <c r="F839" s="2"/>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6">
       <c r="C840" s="1"/>
       <c r="D840" s="2"/>
       <c r="F840" s="2"/>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6">
       <c r="C841" s="1"/>
       <c r="D841" s="2"/>
       <c r="F841" s="2"/>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6">
       <c r="C842" s="1"/>
       <c r="D842" s="2"/>
       <c r="F842" s="2"/>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6">
       <c r="C843" s="1"/>
       <c r="D843" s="2"/>
       <c r="F843" s="2"/>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6">
       <c r="C844" s="1"/>
       <c r="D844" s="2"/>
       <c r="F844" s="2"/>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6">
       <c r="C845" s="1"/>
       <c r="D845" s="2"/>
       <c r="F845" s="2"/>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6">
       <c r="C846" s="1"/>
       <c r="D846" s="2"/>
       <c r="F846" s="2"/>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6">
       <c r="C847" s="1"/>
       <c r="D847" s="2"/>
       <c r="F847" s="2"/>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6">
       <c r="C848" s="1"/>
       <c r="D848" s="2"/>
       <c r="F848" s="2"/>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6">
       <c r="C849" s="1"/>
       <c r="D849" s="2"/>
       <c r="F849" s="2"/>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6">
       <c r="C850" s="1"/>
       <c r="D850" s="2"/>
       <c r="F850" s="2"/>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6">
       <c r="C851" s="1"/>
       <c r="D851" s="2"/>
       <c r="F851" s="2"/>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6">
       <c r="C852" s="1"/>
       <c r="D852" s="2"/>
       <c r="F852" s="2"/>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6">
       <c r="C853" s="1"/>
       <c r="D853" s="2"/>
       <c r="F853" s="2"/>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6">
       <c r="C854" s="1"/>
       <c r="D854" s="2"/>
       <c r="F854" s="2"/>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6">
       <c r="C855" s="1"/>
       <c r="D855" s="2"/>
       <c r="F855" s="2"/>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6">
       <c r="C856" s="1"/>
       <c r="D856" s="2"/>
       <c r="F856" s="2"/>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6">
       <c r="C857" s="1"/>
       <c r="D857" s="2"/>
       <c r="F857" s="2"/>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6">
       <c r="C858" s="1"/>
       <c r="D858" s="2"/>
       <c r="F858" s="2"/>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6">
       <c r="C859" s="1"/>
       <c r="D859" s="2"/>
       <c r="F859" s="2"/>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6">
       <c r="C860" s="1"/>
       <c r="D860" s="2"/>
       <c r="F860" s="2"/>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6">
       <c r="C861" s="1"/>
       <c r="D861" s="2"/>
       <c r="F861" s="2"/>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6">
       <c r="C862" s="1"/>
       <c r="D862" s="2"/>
       <c r="F862" s="2"/>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6">
       <c r="A863" s="6"/>
       <c r="C863" s="1"/>
       <c r="D863" s="2"/>
       <c r="F863" s="2"/>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6">
       <c r="C864" s="1"/>
       <c r="D864" s="2"/>
       <c r="F864" s="2"/>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6">
       <c r="C865" s="1"/>
       <c r="D865" s="2"/>
       <c r="F865" s="2"/>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6">
       <c r="C866" s="1"/>
       <c r="D866" s="2"/>
       <c r="F866" s="2"/>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6">
       <c r="A867" s="6"/>
       <c r="C867" s="1"/>
       <c r="D867" s="2"/>
       <c r="F867" s="2"/>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6">
       <c r="C868" s="1"/>
       <c r="D868" s="2"/>
       <c r="F868" s="2"/>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6">
       <c r="C869" s="1"/>
       <c r="D869" s="2"/>
       <c r="F869" s="2"/>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6">
       <c r="C870" s="1"/>
       <c r="D870" s="2"/>
       <c r="F870" s="2"/>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6">
       <c r="C871" s="1"/>
       <c r="D871" s="2"/>
       <c r="F871" s="2"/>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6">
       <c r="C872" s="1"/>
       <c r="D872" s="2"/>
       <c r="F872" s="2"/>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6">
       <c r="C873" s="1"/>
       <c r="D873" s="2"/>
       <c r="F873" s="2"/>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6">
       <c r="C874" s="1"/>
       <c r="D874" s="2"/>
       <c r="F874" s="2"/>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6">
       <c r="C875" s="1"/>
       <c r="D875" s="2"/>
       <c r="F875" s="2"/>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6">
       <c r="C876" s="1"/>
       <c r="D876" s="2"/>
       <c r="F876" s="2"/>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6">
       <c r="C877" s="1"/>
       <c r="D877" s="2"/>
       <c r="F877" s="2"/>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6">
       <c r="C878" s="1"/>
       <c r="D878" s="2"/>
       <c r="F878" s="2"/>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6">
       <c r="C879" s="1"/>
       <c r="D879" s="2"/>
       <c r="F879" s="2"/>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6">
       <c r="A880" s="6"/>
       <c r="C880" s="1"/>
       <c r="D880" s="2"/>
       <c r="F880" s="2"/>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6">
       <c r="C881" s="1"/>
       <c r="D881" s="2"/>
       <c r="F881" s="2"/>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6">
       <c r="C882" s="1"/>
       <c r="D882" s="2"/>
       <c r="F882" s="2"/>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6">
       <c r="C883" s="1"/>
       <c r="D883" s="2"/>
       <c r="F883" s="2"/>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6">
       <c r="A884" s="6"/>
       <c r="C884" s="1"/>
       <c r="D884" s="2"/>
       <c r="F884" s="2"/>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6">
       <c r="C885" s="1"/>
       <c r="D885" s="2"/>
       <c r="F885" s="2"/>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6">
       <c r="C886" s="1"/>
       <c r="D886" s="2"/>
       <c r="F886" s="2"/>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6">
       <c r="C887" s="1"/>
       <c r="D887" s="2"/>
       <c r="F887" s="2"/>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6">
       <c r="C888" s="1"/>
       <c r="D888" s="2"/>
       <c r="F888" s="2"/>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6">
       <c r="A889" s="6"/>
       <c r="C889" s="1"/>
       <c r="D889" s="2"/>
       <c r="F889" s="2"/>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6">
       <c r="C890" s="1"/>
       <c r="D890" s="2"/>
       <c r="F890" s="2"/>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6">
       <c r="C891" s="1"/>
       <c r="D891" s="2"/>
       <c r="F891" s="2"/>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6">
       <c r="C892" s="1"/>
       <c r="D892" s="2"/>
       <c r="F892" s="2"/>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6">
       <c r="C893" s="1"/>
       <c r="D893" s="2"/>
       <c r="F893" s="2"/>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6">
       <c r="C894" s="1"/>
       <c r="D894" s="2"/>
       <c r="F894" s="2"/>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6">
       <c r="C895" s="1"/>
       <c r="D895" s="2"/>
       <c r="F895" s="2"/>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6">
       <c r="C896" s="1"/>
       <c r="D896" s="2"/>
       <c r="F896" s="2"/>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6">
       <c r="A897" s="6"/>
       <c r="C897" s="1"/>
       <c r="D897" s="2"/>
       <c r="F897" s="2"/>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6">
       <c r="C898" s="1"/>
       <c r="D898" s="2"/>
       <c r="F898" s="2"/>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6">
       <c r="C899" s="1"/>
       <c r="D899" s="2"/>
       <c r="F899" s="2"/>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6">
       <c r="C900" s="1"/>
       <c r="D900" s="2"/>
       <c r="F900" s="2"/>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6">
       <c r="A901" s="6"/>
       <c r="C901" s="1"/>
       <c r="D901" s="2"/>
       <c r="F901" s="2"/>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6">
       <c r="C902" s="1"/>
       <c r="D902" s="2"/>
       <c r="F902" s="2"/>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6">
       <c r="A903" s="6"/>
       <c r="C903" s="1"/>
       <c r="D903" s="2"/>
       <c r="F903" s="2"/>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6">
       <c r="C904" s="1"/>
       <c r="D904" s="2"/>
       <c r="F904" s="2"/>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6">
       <c r="C905" s="1"/>
       <c r="D905" s="2"/>
       <c r="F905" s="2"/>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6">
       <c r="C906" s="1"/>
       <c r="D906" s="2"/>
       <c r="F906" s="2"/>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6">
       <c r="C907" s="1"/>
       <c r="D907" s="2"/>
       <c r="F907" s="2"/>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6">
       <c r="C908" s="1"/>
       <c r="D908" s="2"/>
       <c r="F908" s="2"/>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6">
       <c r="C909" s="1"/>
       <c r="D909" s="2"/>
       <c r="F909" s="2"/>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6">
       <c r="C910" s="1"/>
       <c r="D910" s="2"/>
       <c r="F910" s="2"/>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6">
       <c r="A911" s="6"/>
       <c r="C911" s="1"/>
       <c r="D911" s="2"/>
       <c r="F911" s="2"/>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6">
       <c r="C912" s="1"/>
       <c r="D912" s="2"/>
       <c r="F912" s="2"/>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6">
       <c r="C913" s="1"/>
       <c r="D913" s="2"/>
       <c r="F913" s="2"/>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6">
       <c r="C914" s="1"/>
       <c r="D914" s="2"/>
       <c r="F914" s="2"/>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6">
       <c r="C915" s="1"/>
       <c r="D915" s="2"/>
       <c r="F915" s="2"/>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6">
       <c r="C916" s="1"/>
       <c r="D916" s="2"/>
       <c r="F916" s="2"/>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6">
       <c r="A917" s="6"/>
       <c r="C917" s="1"/>
       <c r="D917" s="2"/>
       <c r="F917" s="2"/>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6">
       <c r="C918" s="1"/>
       <c r="D918" s="2"/>
       <c r="F918" s="2"/>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6">
       <c r="C919" s="1"/>
       <c r="D919" s="2"/>
       <c r="F919" s="2"/>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6">
       <c r="A920" s="6"/>
       <c r="C920" s="1"/>
       <c r="D920" s="2"/>
       <c r="F920" s="2"/>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6">
       <c r="C921" s="1"/>
       <c r="D921" s="2"/>
       <c r="F921" s="2"/>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6">
       <c r="C922" s="1"/>
       <c r="D922" s="2"/>
       <c r="F922" s="2"/>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6">
       <c r="C923" s="1"/>
       <c r="D923" s="2"/>
       <c r="F923" s="2"/>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6">
       <c r="C924" s="1"/>
       <c r="D924" s="2"/>
       <c r="F924" s="2"/>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6">
       <c r="C925" s="1"/>
       <c r="D925" s="2"/>
       <c r="F925" s="2"/>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6">
       <c r="C926" s="1"/>
       <c r="D926" s="2"/>
       <c r="F926" s="2"/>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6">
       <c r="C927" s="1"/>
       <c r="D927" s="2"/>
       <c r="F927" s="2"/>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6">
       <c r="C928" s="1"/>
       <c r="D928" s="2"/>
       <c r="F928" s="2"/>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6">
       <c r="C929" s="1"/>
       <c r="D929" s="2"/>
       <c r="F929" s="2"/>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:6">
       <c r="C930" s="1"/>
       <c r="D930" s="2"/>
       <c r="F930" s="2"/>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6">
       <c r="C931" s="1"/>
       <c r="D931" s="2"/>
       <c r="F931" s="2"/>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6">
       <c r="C932" s="1"/>
       <c r="D932" s="2"/>
       <c r="F932" s="2"/>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:6">
       <c r="C933" s="1"/>
       <c r="D933" s="2"/>
       <c r="F933" s="2"/>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6">
       <c r="C934" s="1"/>
       <c r="D934" s="2"/>
       <c r="F934" s="2"/>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6">
       <c r="C935" s="1"/>
       <c r="D935" s="2"/>
       <c r="F935" s="2"/>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6">
       <c r="C936" s="1"/>
       <c r="D936" s="2"/>
       <c r="F936" s="2"/>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:6">
       <c r="C937" s="1"/>
       <c r="D937" s="2"/>
       <c r="F937" s="2"/>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6">
       <c r="C938" s="1"/>
       <c r="D938" s="2"/>
       <c r="F938" s="2"/>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6">
       <c r="C939" s="1"/>
       <c r="D939" s="2"/>
       <c r="F939" s="2"/>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6">
       <c r="A940" s="6"/>
       <c r="C940" s="1"/>
       <c r="D940" s="2"/>
       <c r="F940" s="2"/>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6">
       <c r="C941" s="1"/>
       <c r="D941" s="2"/>
       <c r="F941" s="2"/>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6">
       <c r="C942" s="1"/>
       <c r="D942" s="2"/>
       <c r="F942" s="2"/>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6">
       <c r="C943" s="1"/>
       <c r="D943" s="2"/>
       <c r="F943" s="2"/>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6">
       <c r="A944" s="6"/>
       <c r="C944" s="1"/>
       <c r="D944" s="2"/>
       <c r="F944" s="2"/>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6">
       <c r="C945" s="1"/>
       <c r="D945" s="2"/>
       <c r="F945" s="2"/>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6">
       <c r="C946" s="1"/>
       <c r="D946" s="2"/>
       <c r="F946" s="2"/>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6">
       <c r="A947" s="6"/>
       <c r="C947" s="1"/>
       <c r="D947" s="2"/>
       <c r="F947" s="2"/>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6">
       <c r="C948" s="1"/>
       <c r="D948" s="2"/>
       <c r="F948" s="2"/>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6">
       <c r="A949" s="6"/>
       <c r="C949" s="1"/>
       <c r="D949" s="2"/>
       <c r="F949" s="2"/>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6">
       <c r="C950" s="1"/>
       <c r="D950" s="2"/>
       <c r="F950" s="2"/>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6">
       <c r="C951" s="1"/>
       <c r="D951" s="2"/>
       <c r="F951" s="2"/>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6">
       <c r="C952" s="1"/>
       <c r="D952" s="2"/>
       <c r="F952" s="2"/>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6">
       <c r="C953" s="1"/>
       <c r="D953" s="2"/>
       <c r="F953" s="2"/>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6">
       <c r="C954" s="1"/>
       <c r="D954" s="2"/>
       <c r="F954" s="2"/>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6">
       <c r="C955" s="1"/>
       <c r="D955" s="2"/>
       <c r="F955" s="2"/>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6">
       <c r="C956" s="1"/>
       <c r="D956" s="2"/>
       <c r="F956" s="2"/>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6">
       <c r="C957" s="1"/>
       <c r="D957" s="2"/>
       <c r="F957" s="2"/>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6">
       <c r="C958" s="1"/>
       <c r="D958" s="2"/>
       <c r="F958" s="2"/>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6">
       <c r="C959" s="1"/>
       <c r="D959" s="2"/>
       <c r="F959" s="2"/>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6">
       <c r="C960" s="1"/>
       <c r="D960" s="2"/>
       <c r="F960" s="2"/>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6">
       <c r="C961" s="1"/>
       <c r="D961" s="2"/>
       <c r="F961" s="2"/>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:6">
       <c r="C962" s="1"/>
       <c r="D962" s="2"/>
       <c r="F962" s="2"/>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6">
       <c r="C963" s="1"/>
       <c r="D963" s="2"/>
       <c r="F963" s="2"/>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6">
       <c r="C964" s="1"/>
       <c r="D964" s="2"/>
       <c r="F964" s="2"/>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6">
       <c r="C965" s="1"/>
       <c r="D965" s="2"/>
       <c r="F965" s="2"/>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6">
       <c r="C966" s="1"/>
       <c r="D966" s="2"/>
       <c r="F966" s="2"/>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6">
       <c r="C967" s="1"/>
       <c r="D967" s="2"/>
       <c r="F967" s="2"/>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:6">
       <c r="C968" s="1"/>
       <c r="D968" s="2"/>
       <c r="F968" s="2"/>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6">
       <c r="C969" s="1"/>
       <c r="D969" s="2"/>
       <c r="F969" s="2"/>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6">
       <c r="C970" s="1"/>
       <c r="D970" s="2"/>
       <c r="F970" s="2"/>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6">
       <c r="A971" s="6"/>
       <c r="C971" s="1"/>
       <c r="D971" s="2"/>
       <c r="F971" s="2"/>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6">
       <c r="C972" s="1"/>
       <c r="D972" s="2"/>
       <c r="F972" s="2"/>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6">
       <c r="C973" s="1"/>
       <c r="D973" s="2"/>
       <c r="F973" s="2"/>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6">
       <c r="C974" s="1"/>
       <c r="D974" s="2"/>
       <c r="F974" s="2"/>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6">
       <c r="A975" s="6"/>
       <c r="C975" s="1"/>
       <c r="D975" s="2"/>
       <c r="F975" s="2"/>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6">
       <c r="C976" s="1"/>
       <c r="D976" s="2"/>
       <c r="F976" s="2"/>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6">
       <c r="C977" s="1"/>
       <c r="D977" s="2"/>
       <c r="F977" s="2"/>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6">
       <c r="C978" s="1"/>
       <c r="D978" s="2"/>
       <c r="F978" s="2"/>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:6">
       <c r="C979" s="1"/>
       <c r="D979" s="2"/>
       <c r="F979" s="2"/>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:6">
       <c r="C980" s="1"/>
       <c r="D980" s="2"/>
       <c r="F980" s="2"/>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6">
       <c r="C981" s="1"/>
       <c r="D981" s="2"/>
       <c r="F981" s="2"/>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6">
       <c r="C982" s="1"/>
       <c r="D982" s="2"/>
       <c r="F982" s="2"/>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6">
       <c r="C983" s="1"/>
       <c r="D983" s="2"/>
       <c r="F983" s="2"/>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6">
       <c r="C984" s="1"/>
       <c r="D984" s="2"/>
       <c r="F984" s="2"/>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6">
       <c r="C985" s="1"/>
       <c r="D985" s="2"/>
       <c r="F985" s="2"/>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6">
       <c r="C986" s="1"/>
       <c r="D986" s="2"/>
       <c r="F986" s="2"/>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6">
       <c r="C987" s="1"/>
       <c r="D987" s="2"/>
       <c r="F987" s="2"/>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:6">
       <c r="C988" s="1"/>
       <c r="D988" s="2"/>
       <c r="F988" s="2"/>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6">
       <c r="A989" s="6"/>
       <c r="C989" s="1"/>
       <c r="D989" s="2"/>
       <c r="F989" s="2"/>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:6">
       <c r="A990" s="6"/>
       <c r="C990" s="1"/>
       <c r="D990" s="2"/>
       <c r="F990" s="2"/>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:6">
       <c r="C991" s="1"/>
       <c r="D991" s="2"/>
       <c r="F991" s="2"/>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:6">
       <c r="C992" s="1"/>
       <c r="D992" s="2"/>
       <c r="F992" s="2"/>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6">
       <c r="C993" s="1"/>
       <c r="D993" s="2"/>
       <c r="F993" s="2"/>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:6">
       <c r="C994" s="1"/>
       <c r="D994" s="2"/>
       <c r="F994" s="2"/>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:6">
       <c r="C995" s="1"/>
       <c r="D995" s="2"/>
       <c r="F995" s="2"/>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:6">
       <c r="A996" s="6"/>
       <c r="C996" s="1"/>
       <c r="D996" s="2"/>
       <c r="F996" s="2"/>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:6">
       <c r="C997" s="1"/>
       <c r="D997" s="2"/>
       <c r="F997" s="2"/>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:6">
       <c r="C998" s="1"/>
       <c r="D998" s="2"/>
       <c r="F998" s="2"/>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6">
       <c r="A999" s="6"/>
       <c r="C999" s="1"/>
       <c r="D999" s="2"/>
       <c r="F999" s="2"/>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:6">
       <c r="C1000" s="1"/>
       <c r="D1000" s="2"/>
       <c r="F1000" s="2"/>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:6">
       <c r="C1001" s="1"/>
       <c r="D1001" s="2"/>
       <c r="F1001" s="2"/>
     </row>
-    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:6">
       <c r="C1002" s="1"/>
       <c r="D1002" s="2"/>
       <c r="F1002" s="2"/>
     </row>
-    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:6">
       <c r="C1003" s="1"/>
       <c r="D1003" s="2"/>
       <c r="F1003" s="2"/>
     </row>
-    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:6">
       <c r="C1004" s="1"/>
       <c r="D1004" s="2"/>
       <c r="F1004" s="2"/>
     </row>
-    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:6">
       <c r="A1005" s="6"/>
       <c r="C1005" s="1"/>
       <c r="D1005" s="2"/>
       <c r="F1005" s="2"/>
     </row>
-    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:6">
       <c r="C1006" s="1"/>
       <c r="D1006" s="2"/>
       <c r="F1006" s="2"/>
     </row>
-    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:6">
       <c r="C1007" s="1"/>
       <c r="D1007" s="2"/>
       <c r="F1007" s="2"/>
     </row>
-    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:6">
       <c r="C1008" s="1"/>
       <c r="D1008" s="2"/>
       <c r="F1008" s="2"/>
     </row>
-    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:6">
       <c r="C1009" s="1"/>
       <c r="D1009" s="2"/>
       <c r="F1009" s="2"/>
     </row>
-    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:6">
       <c r="C1010" s="1"/>
       <c r="D1010" s="2"/>
       <c r="F1010" s="2"/>
     </row>
-    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:6">
       <c r="C1011" s="1"/>
       <c r="D1011" s="2"/>
       <c r="F1011" s="2"/>
     </row>
-    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:6">
       <c r="C1012" s="1"/>
       <c r="D1012" s="2"/>
       <c r="F1012" s="2"/>
     </row>
-    <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:6">
       <c r="C1013" s="1"/>
       <c r="D1013" s="2"/>
       <c r="F1013" s="2"/>
     </row>
-    <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:6">
       <c r="C1014" s="1"/>
       <c r="D1014" s="2"/>
       <c r="F1014" s="2"/>
     </row>
-    <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:6">
       <c r="C1015" s="1"/>
       <c r="D1015" s="2"/>
       <c r="F1015" s="2"/>
     </row>
-    <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:6">
       <c r="C1016" s="1"/>
       <c r="D1016" s="2"/>
       <c r="F1016" s="2"/>
     </row>
-    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:6">
       <c r="C1017" s="1"/>
       <c r="D1017" s="2"/>
       <c r="F1017" s="2"/>
     </row>
-    <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:6">
       <c r="A1018" s="6"/>
       <c r="C1018" s="1"/>
       <c r="D1018" s="2"/>
       <c r="F1018" s="2"/>
     </row>
-    <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:6">
       <c r="A1019" s="6"/>
       <c r="C1019" s="1"/>
       <c r="D1019" s="2"/>
       <c r="F1019" s="2"/>
     </row>
-    <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:6">
       <c r="C1020" s="1"/>
       <c r="D1020" s="2"/>
       <c r="F1020" s="2"/>
     </row>
-    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:6">
       <c r="C1021" s="1"/>
       <c r="D1021" s="2"/>
       <c r="F1021" s="2"/>
     </row>
-    <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:6">
       <c r="C1022" s="1"/>
       <c r="D1022" s="2"/>
       <c r="F1022" s="2"/>
     </row>
-    <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:6">
       <c r="C1023" s="1"/>
       <c r="D1023" s="2"/>
       <c r="F1023" s="2"/>
     </row>
-    <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:6">
       <c r="C1024" s="1"/>
       <c r="D1024" s="2"/>
       <c r="F1024" s="2"/>
     </row>
-    <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:6">
       <c r="C1025" s="1"/>
       <c r="D1025" s="2"/>
       <c r="F1025" s="2"/>
     </row>
-    <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:6">
       <c r="C1026" s="1"/>
       <c r="D1026" s="2"/>
       <c r="F1026" s="2"/>
     </row>
-    <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:6">
       <c r="C1027" s="1"/>
       <c r="D1027" s="2"/>
       <c r="F1027" s="2"/>
     </row>
-    <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:6">
       <c r="C1028" s="1"/>
       <c r="D1028" s="2"/>
       <c r="F1028" s="2"/>
     </row>
-    <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:6">
       <c r="C1029" s="1"/>
       <c r="D1029" s="2"/>
       <c r="F1029" s="2"/>
     </row>
-    <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:6">
       <c r="C1030" s="1"/>
       <c r="D1030" s="2"/>
       <c r="F1030" s="2"/>
     </row>
-    <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:6">
       <c r="C1031" s="1"/>
       <c r="D1031" s="2"/>
       <c r="F1031" s="2"/>
     </row>
-    <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:6">
       <c r="C1032" s="1"/>
       <c r="D1032" s="2"/>
       <c r="F1032" s="2"/>
     </row>
-    <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:6">
       <c r="A1033" s="6"/>
       <c r="C1033" s="1"/>
       <c r="D1033" s="2"/>
       <c r="F1033" s="2"/>
     </row>
-    <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:6">
       <c r="C1034" s="1"/>
       <c r="D1034" s="2"/>
       <c r="F1034" s="2"/>
     </row>
-    <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:6">
       <c r="C1035" s="1"/>
       <c r="D1035" s="2"/>
       <c r="F1035" s="2"/>
     </row>
-    <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:6">
       <c r="C1036" s="1"/>
       <c r="D1036" s="2"/>
       <c r="F1036" s="2"/>
     </row>
-    <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:6">
       <c r="C1037" s="1"/>
       <c r="D1037" s="2"/>
       <c r="F1037" s="2"/>
     </row>
-    <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:6">
       <c r="C1038" s="1"/>
       <c r="D1038" s="2"/>
       <c r="F1038" s="2"/>
     </row>
-    <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:6">
       <c r="C1039" s="1"/>
       <c r="D1039" s="2"/>
       <c r="F1039" s="2"/>
     </row>
-    <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:6">
       <c r="C1040" s="1"/>
       <c r="D1040" s="2"/>
       <c r="F1040" s="2"/>
     </row>
-    <row r="1041" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1041" spans="3:6">
       <c r="C1041" s="1"/>
       <c r="D1041" s="2"/>
       <c r="F1041" s="2"/>
     </row>
-    <row r="1042" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1042" spans="3:6">
       <c r="C1042" s="1"/>
       <c r="D1042" s="2"/>
       <c r="F1042" s="2"/>
     </row>
-    <row r="1043" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1043" spans="3:6">
       <c r="C1043" s="1"/>
       <c r="D1043" s="2"/>
       <c r="F1043" s="2"/>
     </row>
-    <row r="1044" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1044" spans="3:6">
       <c r="C1044" s="1"/>
       <c r="D1044" s="2"/>
       <c r="F1044" s="2"/>
     </row>
-    <row r="1045" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1045" spans="3:6">
       <c r="C1045" s="1"/>
       <c r="D1045" s="2"/>
       <c r="F1045" s="2"/>
     </row>
-    <row r="1046" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1046" spans="3:6">
       <c r="C1046" s="1"/>
       <c r="D1046" s="2"/>
       <c r="F1046" s="2"/>
     </row>
-    <row r="1047" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1047" spans="3:6">
       <c r="C1047" s="1"/>
       <c r="D1047" s="2"/>
       <c r="F1047" s="2"/>
     </row>
-    <row r="1048" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1048" spans="3:6">
       <c r="C1048" s="1"/>
       <c r="D1048" s="2"/>
       <c r="F1048" s="2"/>
     </row>
-    <row r="1049" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1049" spans="3:6">
       <c r="C1049" s="1"/>
       <c r="D1049" s="2"/>
       <c r="F1049" s="2"/>
     </row>
-    <row r="1050" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1050" spans="3:6">
       <c r="C1050" s="1"/>
       <c r="D1050" s="2"/>
       <c r="F1050" s="2"/>
     </row>
-    <row r="1051" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1051" spans="3:6">
       <c r="C1051" s="1"/>
       <c r="D1051" s="2"/>
       <c r="F1051" s="2"/>
     </row>
-    <row r="1052" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1052" spans="3:6">
       <c r="C1052" s="1"/>
       <c r="D1052" s="2"/>
       <c r="F1052" s="2"/>
     </row>
-    <row r="1053" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1053" spans="3:6">
       <c r="C1053" s="1"/>
       <c r="D1053" s="2"/>
       <c r="F1053" s="2"/>
     </row>
-    <row r="1054" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1054" spans="3:6">
       <c r="C1054" s="1"/>
       <c r="D1054" s="2"/>
       <c r="F1054" s="2"/>
     </row>
-    <row r="1055" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1055" spans="3:6">
       <c r="C1055" s="1"/>
       <c r="D1055" s="2"/>
       <c r="F1055" s="2"/>
     </row>
-    <row r="1056" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1056" spans="3:6">
       <c r="C1056" s="1"/>
       <c r="D1056" s="2"/>
       <c r="F1056" s="2"/>
     </row>
-    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:6">
       <c r="C1057" s="1"/>
       <c r="D1057" s="2"/>
       <c r="F1057" s="2"/>
     </row>
-    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:6">
       <c r="C1058" s="1"/>
       <c r="D1058" s="2"/>
       <c r="F1058" s="2"/>
     </row>
-    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:6">
       <c r="C1059" s="1"/>
       <c r="D1059" s="2"/>
       <c r="F1059" s="2"/>
     </row>
-    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:6">
       <c r="C1060" s="1"/>
       <c r="D1060" s="2"/>
       <c r="F1060" s="2"/>
     </row>
-    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:6">
       <c r="C1061" s="1"/>
       <c r="D1061" s="2"/>
       <c r="F1061" s="2"/>
     </row>
-    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:6">
       <c r="C1062" s="1"/>
       <c r="D1062" s="2"/>
       <c r="F1062" s="2"/>
     </row>
-    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:6">
       <c r="C1063" s="1"/>
       <c r="D1063" s="2"/>
       <c r="F1063" s="2"/>
     </row>
-    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:6">
       <c r="C1064" s="1"/>
       <c r="D1064" s="2"/>
       <c r="F1064" s="2"/>
     </row>
-    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:6">
       <c r="C1065" s="1"/>
       <c r="D1065" s="2"/>
       <c r="F1065" s="2"/>
     </row>
-    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:6">
       <c r="C1066" s="1"/>
       <c r="D1066" s="2"/>
       <c r="F1066" s="2"/>
     </row>
-    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:6">
       <c r="C1067" s="1"/>
       <c r="D1067" s="2"/>
       <c r="F1067" s="2"/>
     </row>
-    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:6">
       <c r="C1068" s="1"/>
       <c r="D1068" s="2"/>
       <c r="F1068" s="2"/>
     </row>
-    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:6">
       <c r="C1069" s="1"/>
       <c r="D1069" s="2"/>
       <c r="F1069" s="2"/>
     </row>
-    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:6">
       <c r="C1070" s="1"/>
       <c r="D1070" s="2"/>
       <c r="F1070" s="2"/>
     </row>
-    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:6">
       <c r="C1071" s="1"/>
       <c r="D1071" s="2"/>
       <c r="F1071" s="2"/>
     </row>
-    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:6">
       <c r="A1072" s="6"/>
       <c r="C1072" s="1"/>
       <c r="D1072" s="2"/>
       <c r="F1072" s="2"/>
     </row>
-    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:6">
       <c r="C1073" s="1"/>
       <c r="D1073" s="2"/>
       <c r="F1073" s="2"/>
     </row>
-    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:6">
       <c r="C1074" s="1"/>
       <c r="D1074" s="2"/>
       <c r="F1074" s="2"/>
     </row>
-    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:6">
       <c r="C1075" s="1"/>
       <c r="D1075" s="2"/>
       <c r="F1075" s="2"/>
     </row>
-    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:6">
       <c r="C1076" s="1"/>
       <c r="D1076" s="2"/>
       <c r="F1076" s="2"/>
     </row>
-    <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:6">
       <c r="C1077" s="1"/>
       <c r="D1077" s="2"/>
       <c r="F1077" s="2"/>
     </row>
-    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:6">
       <c r="C1078" s="1"/>
       <c r="D1078" s="2"/>
       <c r="F1078" s="2"/>
     </row>
-    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:6">
       <c r="C1079" s="1"/>
       <c r="D1079" s="2"/>
       <c r="F1079" s="2"/>
     </row>
-    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:6">
       <c r="C1080" s="1"/>
       <c r="D1080" s="2"/>
       <c r="F1080" s="2"/>
     </row>
-    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:6">
       <c r="C1081" s="1"/>
       <c r="D1081" s="2"/>
       <c r="F1081" s="2"/>
     </row>
-    <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:6">
       <c r="C1082" s="1"/>
       <c r="D1082" s="2"/>
       <c r="F1082" s="2"/>
     </row>
-    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:6">
       <c r="C1083" s="1"/>
       <c r="D1083" s="2"/>
       <c r="F1083" s="2"/>
     </row>
-    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:6">
       <c r="C1084" s="1"/>
       <c r="D1084" s="2"/>
       <c r="F1084" s="2"/>
     </row>
-    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:6">
       <c r="A1085" s="6"/>
       <c r="C1085" s="1"/>
       <c r="D1085" s="2"/>
       <c r="F1085" s="2"/>
     </row>
-    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:6">
       <c r="C1086" s="1"/>
       <c r="D1086" s="2"/>
       <c r="F1086" s="2"/>
     </row>
-    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:6">
       <c r="C1087" s="1"/>
       <c r="D1087" s="2"/>
       <c r="F1087" s="2"/>
     </row>
-    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:6">
       <c r="C1088" s="1"/>
       <c r="D1088" s="2"/>
       <c r="F1088" s="2"/>
     </row>
-    <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:6">
       <c r="C1089" s="1"/>
       <c r="D1089" s="2"/>
       <c r="F1089" s="2"/>
     </row>
-    <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:6">
       <c r="C1090" s="1"/>
       <c r="D1090" s="2"/>
       <c r="F1090" s="2"/>
     </row>
-    <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:6">
       <c r="C1091" s="1"/>
       <c r="D1091" s="2"/>
       <c r="F1091" s="2"/>
     </row>
-    <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:6">
       <c r="C1092" s="1"/>
       <c r="D1092" s="2"/>
       <c r="F1092" s="2"/>
     </row>
-    <row r="1093" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:6">
       <c r="C1093" s="1"/>
       <c r="D1093" s="2"/>
       <c r="F1093" s="2"/>
     </row>
-    <row r="1094" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:6">
       <c r="A1094" s="6"/>
       <c r="C1094" s="1"/>
       <c r="D1094" s="2"/>
       <c r="F1094" s="2"/>
     </row>
-    <row r="1095" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:6">
       <c r="A1095" s="6"/>
       <c r="C1095" s="1"/>
       <c r="D1095" s="2"/>
       <c r="F1095" s="2"/>
     </row>
-    <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:6">
       <c r="C1096" s="1"/>
       <c r="D1096" s="2"/>
       <c r="F1096" s="2"/>
     </row>
-    <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:6">
       <c r="C1097" s="1"/>
       <c r="D1097" s="2"/>
       <c r="F1097" s="2"/>
     </row>
-    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:6">
       <c r="C1098" s="1"/>
       <c r="D1098" s="2"/>
       <c r="F1098" s="2"/>
     </row>
-    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:6">
       <c r="C1099" s="1"/>
       <c r="D1099" s="2"/>
       <c r="F1099" s="2"/>
     </row>
-    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:6">
       <c r="C1100" s="1"/>
       <c r="D1100" s="2"/>
       <c r="F1100" s="2"/>
     </row>
-    <row r="1101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:6">
       <c r="C1101" s="1"/>
       <c r="D1101" s="2"/>
       <c r="F1101" s="2"/>
     </row>
-    <row r="1102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:6">
       <c r="C1102" s="1"/>
       <c r="D1102" s="2"/>
       <c r="F1102" s="2"/>
     </row>
-    <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:6">
       <c r="C1103" s="1"/>
       <c r="D1103" s="2"/>
       <c r="F1103" s="2"/>
     </row>
-    <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:6">
       <c r="C1104" s="1"/>
       <c r="D1104" s="2"/>
       <c r="F1104" s="2"/>
     </row>
-    <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:6">
       <c r="C1105" s="1"/>
       <c r="D1105" s="2"/>
       <c r="F1105" s="2"/>
     </row>
-    <row r="1106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:6">
       <c r="C1106" s="1"/>
       <c r="D1106" s="2"/>
       <c r="F1106" s="2"/>
     </row>
-    <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:6">
       <c r="C1107" s="1"/>
       <c r="D1107" s="2"/>
       <c r="F1107" s="2"/>
     </row>
-    <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:6">
       <c r="C1108" s="1"/>
       <c r="D1108" s="2"/>
       <c r="F1108" s="2"/>
     </row>
-    <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:6">
       <c r="A1109" s="6"/>
       <c r="C1109" s="1"/>
       <c r="D1109" s="2"/>
       <c r="F1109" s="2"/>
     </row>
-    <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:6">
       <c r="C1110" s="1"/>
       <c r="D1110" s="2"/>
       <c r="F1110" s="2"/>
     </row>
-    <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:6">
       <c r="C1111" s="1"/>
       <c r="D1111" s="2"/>
       <c r="F1111" s="2"/>
     </row>
-    <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:6">
       <c r="C1112" s="1"/>
       <c r="D1112" s="2"/>
       <c r="F1112" s="2"/>
     </row>
-    <row r="1113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:6">
       <c r="C1113" s="1"/>
       <c r="D1113" s="2"/>
       <c r="F1113" s="2"/>
     </row>
-    <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:6">
       <c r="C1114" s="1"/>
       <c r="D1114" s="2"/>
       <c r="F1114" s="2"/>
     </row>
-    <row r="1115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:6">
       <c r="C1115" s="1"/>
       <c r="D1115" s="2"/>
       <c r="F1115" s="2"/>
     </row>
-    <row r="1116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:6">
       <c r="C1116" s="1"/>
       <c r="D1116" s="2"/>
       <c r="F1116" s="2"/>
     </row>
-    <row r="1117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:6">
       <c r="C1117" s="1"/>
       <c r="D1117" s="2"/>
       <c r="F1117" s="2"/>
     </row>
-    <row r="1118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:6">
       <c r="C1118" s="1"/>
       <c r="D1118" s="2"/>
       <c r="F1118" s="2"/>
     </row>
-    <row r="1119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:6">
       <c r="C1119" s="1"/>
       <c r="D1119" s="2"/>
       <c r="F1119" s="2"/>
     </row>
-    <row r="1120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:6">
       <c r="C1120" s="1"/>
       <c r="D1120" s="2"/>
       <c r="F1120" s="2"/>
     </row>
-    <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:6">
       <c r="A1121" s="6"/>
       <c r="C1121" s="1"/>
       <c r="D1121" s="2"/>
       <c r="F1121" s="2"/>
     </row>
-    <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:6">
       <c r="C1122" s="1"/>
       <c r="D1122" s="2"/>
       <c r="F1122" s="2"/>
     </row>
-    <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:6">
       <c r="C1123" s="1"/>
       <c r="D1123" s="2"/>
       <c r="F1123" s="2"/>
     </row>
-    <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:6">
       <c r="C1124" s="1"/>
       <c r="D1124" s="2"/>
       <c r="F1124" s="2"/>
     </row>
-    <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:6">
       <c r="C1125" s="1"/>
       <c r="D1125" s="2"/>
       <c r="F1125" s="2"/>
     </row>
-    <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:6">
       <c r="C1126" s="1"/>
       <c r="D1126" s="2"/>
       <c r="F1126" s="2"/>
     </row>
-    <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:6">
       <c r="C1127" s="1"/>
       <c r="D1127" s="2"/>
       <c r="F1127" s="2"/>
     </row>
-    <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:6">
       <c r="C1128" s="1"/>
       <c r="D1128" s="2"/>
       <c r="F1128" s="2"/>
     </row>
-    <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:6">
       <c r="C1129" s="1"/>
       <c r="D1129" s="2"/>
       <c r="F1129" s="2"/>
     </row>
-    <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:6">
       <c r="C1130" s="1"/>
       <c r="D1130" s="2"/>
       <c r="F1130" s="2"/>
     </row>
-    <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:6">
       <c r="C1131" s="1"/>
       <c r="D1131" s="2"/>
       <c r="F1131" s="2"/>
     </row>
-    <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:6">
       <c r="C1132" s="1"/>
       <c r="D1132" s="2"/>
       <c r="F1132" s="2"/>
     </row>
-    <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:6">
       <c r="C1133" s="1"/>
       <c r="D1133" s="2"/>
       <c r="F1133" s="2"/>
     </row>
-    <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:6">
       <c r="C1134" s="1"/>
       <c r="D1134" s="2"/>
       <c r="F1134" s="2"/>
     </row>
-    <row r="1135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:6">
       <c r="A1135" s="6"/>
       <c r="C1135" s="1"/>
       <c r="D1135" s="2"/>
       <c r="F1135" s="2"/>
     </row>
-    <row r="1136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:6">
       <c r="C1136" s="1"/>
       <c r="D1136" s="2"/>
       <c r="F1136" s="2"/>
     </row>
-    <row r="1137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:6">
       <c r="A1137" s="6"/>
       <c r="C1137" s="1"/>
       <c r="D1137" s="2"/>
       <c r="F1137" s="2"/>
     </row>
-    <row r="1138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:6">
       <c r="C1138" s="1"/>
       <c r="D1138" s="2"/>
       <c r="F1138" s="2"/>
     </row>
-    <row r="1139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:6">
       <c r="C1139" s="1"/>
       <c r="D1139" s="2"/>
       <c r="F1139" s="2"/>
     </row>
-    <row r="1140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:6">
       <c r="C1140" s="1"/>
       <c r="D1140" s="2"/>
       <c r="F1140" s="2"/>
     </row>
-    <row r="1141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:6">
       <c r="C1141" s="1"/>
       <c r="D1141" s="2"/>
       <c r="F1141" s="2"/>
     </row>
-    <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:6">
       <c r="C1142" s="1"/>
       <c r="D1142" s="2"/>
       <c r="F1142" s="2"/>
     </row>
-    <row r="1143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:6">
       <c r="C1143" s="1"/>
       <c r="D1143" s="2"/>
       <c r="F1143" s="2"/>
     </row>
-    <row r="1144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:6">
       <c r="C1144" s="1"/>
       <c r="D1144" s="2"/>
       <c r="F1144" s="2"/>
     </row>
-    <row r="1145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:6">
       <c r="C1145" s="1"/>
       <c r="D1145" s="2"/>
       <c r="F1145" s="2"/>
     </row>
-    <row r="1146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:6">
       <c r="C1146" s="1"/>
       <c r="D1146" s="2"/>
       <c r="F1146" s="2"/>
     </row>
-    <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:6">
       <c r="C1147" s="1"/>
       <c r="D1147" s="2"/>
       <c r="F1147" s="2"/>
     </row>
-    <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:6">
       <c r="C1148" s="1"/>
       <c r="D1148" s="2"/>
       <c r="F1148" s="2"/>
     </row>
-    <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:6">
       <c r="A1149" s="6"/>
       <c r="C1149" s="1"/>
       <c r="D1149" s="2"/>
       <c r="F1149" s="2"/>
     </row>
-    <row r="1150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:6">
       <c r="C1150" s="1"/>
       <c r="D1150" s="2"/>
       <c r="F1150" s="2"/>
     </row>
-    <row r="1151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:6">
       <c r="C1151" s="1"/>
       <c r="F1151" s="2"/>
     </row>
-    <row r="1152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:6">
       <c r="C1152" s="1"/>
       <c r="F1152" s="2"/>
     </row>
-    <row r="1153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:6">
       <c r="C1153" s="1"/>
       <c r="F1153" s="2"/>
     </row>
-    <row r="1154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:6">
       <c r="C1154" s="1"/>
       <c r="F1154" s="2"/>
     </row>
-    <row r="1155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:6">
       <c r="C1155" s="1"/>
       <c r="F1155" s="2"/>
     </row>
-    <row r="1156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:6">
       <c r="A1156" s="6"/>
       <c r="C1156" s="1"/>
       <c r="F1156" s="2"/>
     </row>
-    <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:6">
       <c r="C1157" s="1"/>
       <c r="F1157" s="2"/>
     </row>
-    <row r="1158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:6">
       <c r="C1158" s="1"/>
       <c r="F1158" s="2"/>
     </row>
-    <row r="1159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:6">
       <c r="C1159" s="1"/>
       <c r="F1159" s="2"/>
     </row>
-    <row r="1160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:6">
       <c r="C1160" s="1"/>
       <c r="F1160" s="2"/>
     </row>
-    <row r="1161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:6">
       <c r="C1161" s="1"/>
       <c r="F1161" s="2"/>
     </row>
-    <row r="1162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:6">
       <c r="C1162" s="1"/>
       <c r="F1162" s="2"/>
     </row>
-    <row r="1163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:6">
       <c r="C1163" s="1"/>
       <c r="F1163" s="2"/>
     </row>
-    <row r="1164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:6">
       <c r="C1164" s="1"/>
       <c r="F1164" s="2"/>
     </row>
-    <row r="1165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1165" spans="1:6">
       <c r="C1165" s="1"/>
       <c r="F1165" s="2"/>
     </row>
-    <row r="1166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:6">
       <c r="C1166" s="1"/>
       <c r="F1166" s="2"/>
     </row>
-    <row r="1167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:6">
       <c r="C1167" s="1"/>
       <c r="F1167" s="2"/>
     </row>
-    <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:6">
       <c r="C1168" s="1"/>
       <c r="F1168" s="2"/>
     </row>
-    <row r="1169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:6">
       <c r="C1169" s="1"/>
       <c r="F1169" s="2"/>
     </row>
-    <row r="1170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:6">
       <c r="C1170" s="1"/>
       <c r="F1170" s="2"/>
     </row>
-    <row r="1171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:6">
       <c r="C1171" s="1"/>
       <c r="F1171" s="2"/>
     </row>
-    <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:6">
       <c r="C1172" s="1"/>
       <c r="F1172" s="2"/>
     </row>
-    <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:6">
       <c r="C1173" s="1"/>
       <c r="F1173" s="2"/>
     </row>
-    <row r="1174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:6">
       <c r="C1174" s="1"/>
       <c r="F1174" s="2"/>
     </row>
-    <row r="1175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:6">
       <c r="C1175" s="1"/>
       <c r="F1175" s="2"/>
     </row>
-    <row r="1176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:6">
       <c r="C1176" s="1"/>
       <c r="F1176" s="2"/>
     </row>
-    <row r="1177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:6">
       <c r="A1177" s="6"/>
       <c r="C1177" s="1"/>
       <c r="F1177" s="2"/>
     </row>
-    <row r="1178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:6">
       <c r="C1178" s="1"/>
       <c r="F1178" s="2"/>
     </row>
-    <row r="1179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:6">
       <c r="C1179" s="1"/>
       <c r="F1179" s="2"/>
     </row>
-    <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:6">
       <c r="C1180" s="1"/>
       <c r="F1180" s="2"/>
     </row>
-    <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:6">
       <c r="C1181" s="1"/>
       <c r="F1181" s="2"/>
     </row>
-    <row r="1182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:6">
       <c r="C1182" s="1"/>
       <c r="F1182" s="2"/>
     </row>
-    <row r="1183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:6">
       <c r="C1183" s="1"/>
       <c r="F1183" s="2"/>
     </row>
-    <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:6">
       <c r="C1184" s="1"/>
       <c r="F1184" s="2"/>
     </row>
-    <row r="1185" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1185" spans="3:6">
       <c r="C1185" s="1"/>
       <c r="F1185" s="2"/>
     </row>
-    <row r="1186" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1186" spans="3:6">
       <c r="C1186" s="1"/>
       <c r="F1186" s="2"/>
     </row>
-    <row r="1187" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1187" spans="3:6">
       <c r="C1187" s="1"/>
       <c r="F1187" s="2"/>
     </row>
-    <row r="1188" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1188" spans="3:6">
       <c r="C1188" s="1"/>
       <c r="F1188" s="2"/>
     </row>
-    <row r="1189" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1189" spans="3:6">
       <c r="C1189" s="1"/>
       <c r="F1189" s="2"/>
     </row>
-    <row r="1190" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1190" spans="3:6">
       <c r="C1190" s="1"/>
       <c r="F1190" s="2"/>
     </row>
-    <row r="1191" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1191" spans="3:6">
       <c r="C1191" s="1"/>
       <c r="F1191" s="2"/>
     </row>
-    <row r="1192" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1192" spans="3:6">
       <c r="C1192" s="1"/>
       <c r="F1192" s="2"/>
     </row>
-    <row r="1193" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1193" spans="3:6">
       <c r="C1193" s="1"/>
       <c r="F1193" s="2"/>
     </row>
-    <row r="1194" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1194" spans="3:6">
       <c r="C1194" s="1"/>
       <c r="F1194" s="2"/>
     </row>
-    <row r="1195" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1195" spans="3:6">
       <c r="C1195" s="1"/>
       <c r="F1195" s="2"/>
     </row>
-    <row r="1196" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1196" spans="3:6">
       <c r="C1196" s="1"/>
       <c r="F1196" s="2"/>
     </row>
-    <row r="1197" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1197" spans="3:6">
       <c r="C1197" s="1"/>
       <c r="F1197" s="2"/>
     </row>
-    <row r="1198" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1198" spans="3:6">
       <c r="C1198" s="1"/>
       <c r="F1198" s="2"/>
     </row>
-    <row r="1199" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1199" spans="3:6">
       <c r="C1199" s="1"/>
       <c r="F1199" s="2"/>
     </row>
-    <row r="1200" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1200" spans="3:6">
       <c r="C1200" s="1"/>
       <c r="F1200" s="2"/>
     </row>
-    <row r="1201" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1201" spans="3:6">
       <c r="C1201" s="1"/>
       <c r="F1201" s="2"/>
     </row>
-    <row r="1202" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1202" spans="3:6">
       <c r="C1202" s="1"/>
       <c r="F1202" s="2"/>
     </row>
-    <row r="1203" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1203" spans="3:6">
       <c r="C1203" s="1"/>
       <c r="F1203" s="2"/>
     </row>
-    <row r="1204" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1204" spans="3:6">
       <c r="C1204" s="1"/>
       <c r="F1204" s="2"/>
     </row>
-    <row r="1205" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1205" spans="3:6">
       <c r="C1205" s="1"/>
       <c r="F1205" s="2"/>
     </row>
-    <row r="1206" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1206" spans="3:6">
       <c r="C1206" s="1"/>
       <c r="F1206" s="2"/>
     </row>
-    <row r="1207" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1207" spans="3:6">
       <c r="C1207" s="1"/>
       <c r="F1207" s="2"/>
     </row>
-    <row r="1208" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1208" spans="3:6">
       <c r="C1208" s="1"/>
       <c r="F1208" s="2"/>
     </row>
-    <row r="1209" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1209" spans="3:6">
       <c r="C1209" s="1"/>
       <c r="F1209" s="2"/>
     </row>
-    <row r="1210" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1210" spans="3:6">
       <c r="C1210" s="1"/>
       <c r="F1210" s="2"/>
     </row>
-    <row r="1211" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1211" spans="3:6">
       <c r="C1211" s="1"/>
       <c r="F1211" s="2"/>
     </row>
-    <row r="1212" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1212" spans="3:6">
       <c r="C1212" s="1"/>
       <c r="F1212" s="2"/>
     </row>
-    <row r="1213" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1213" spans="3:6">
       <c r="C1213" s="1"/>
       <c r="F1213" s="2"/>
     </row>
-    <row r="1214" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1214" spans="3:6">
       <c r="C1214" s="1"/>
       <c r="F1214" s="2"/>
     </row>
-    <row r="1215" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1215" spans="3:6">
       <c r="C1215" s="1"/>
       <c r="F1215" s="2"/>
     </row>
-    <row r="1216" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1216" spans="3:6">
       <c r="C1216" s="1"/>
       <c r="F1216" s="2"/>
     </row>
-    <row r="1217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:6">
       <c r="C1217" s="1"/>
       <c r="F1217" s="2"/>
     </row>
-    <row r="1218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:6">
       <c r="C1218" s="1"/>
       <c r="F1218" s="2"/>
     </row>
-    <row r="1219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:6">
       <c r="C1219" s="1"/>
       <c r="F1219" s="2"/>
     </row>
-    <row r="1220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:6">
       <c r="C1220" s="1"/>
       <c r="F1220" s="2"/>
     </row>
-    <row r="1221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:6">
       <c r="C1221" s="1"/>
       <c r="F1221" s="2"/>
     </row>
-    <row r="1222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:6">
       <c r="C1222" s="1"/>
       <c r="F1222" s="2"/>
     </row>
-    <row r="1223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:6">
       <c r="C1223" s="1"/>
       <c r="F1223" s="2"/>
     </row>
-    <row r="1224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:6">
       <c r="C1224" s="1"/>
       <c r="F1224" s="2"/>
     </row>
-    <row r="1225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:6">
       <c r="C1225" s="1"/>
       <c r="F1225" s="2"/>
     </row>
-    <row r="1226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:6">
       <c r="C1226" s="1"/>
       <c r="F1226" s="2"/>
     </row>
-    <row r="1227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:6">
       <c r="A1227" s="6"/>
       <c r="C1227" s="1"/>
       <c r="F1227" s="2"/>
     </row>
-    <row r="1228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:6">
       <c r="C1228" s="1"/>
       <c r="F1228" s="2"/>
     </row>
-    <row r="1229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:6">
       <c r="C1229" s="1"/>
       <c r="F1229" s="2"/>
     </row>
-    <row r="1230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:6">
       <c r="C1230" s="1"/>
       <c r="F1230" s="2"/>
     </row>
-    <row r="1231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:6">
       <c r="C1231" s="1"/>
       <c r="F1231" s="2"/>
     </row>
-    <row r="1232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:6">
       <c r="C1232" s="1"/>
       <c r="F1232" s="2"/>
     </row>
-    <row r="1233" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1233" spans="3:6">
       <c r="C1233" s="1"/>
       <c r="F1233" s="2"/>
     </row>
-    <row r="1234" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1234" spans="3:6">
       <c r="C1234" s="1"/>
       <c r="F1234" s="2"/>
     </row>
-    <row r="1235" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1235" spans="3:6">
       <c r="C1235" s="1"/>
       <c r="F1235" s="2"/>
     </row>
-    <row r="1236" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1236" spans="3:6">
       <c r="C1236" s="1"/>
       <c r="F1236" s="2"/>
     </row>
-    <row r="1237" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1237" spans="3:6">
       <c r="C1237" s="1"/>
       <c r="F1237" s="2"/>
     </row>
-    <row r="1238" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1238" spans="3:6">
       <c r="C1238" s="1"/>
       <c r="F1238" s="2"/>
     </row>
-    <row r="1239" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1239" spans="3:6">
       <c r="C1239" s="1"/>
       <c r="F1239" s="2"/>
     </row>
-    <row r="1240" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1240" spans="3:6">
       <c r="C1240" s="1"/>
       <c r="F1240" s="2"/>
     </row>
-    <row r="1241" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1241" spans="3:6">
       <c r="C1241" s="1"/>
       <c r="F1241" s="2"/>
     </row>
-    <row r="1242" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1242" spans="3:6">
       <c r="C1242" s="1"/>
       <c r="F1242" s="2"/>
     </row>
-    <row r="1243" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1243" spans="3:6">
       <c r="C1243" s="1"/>
       <c r="F1243" s="2"/>
     </row>
-    <row r="1244" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1244" spans="3:6">
       <c r="C1244" s="1"/>
       <c r="F1244" s="2"/>
     </row>
-    <row r="1245" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1245" spans="3:6">
       <c r="C1245" s="1"/>
       <c r="F1245" s="2"/>
     </row>
-    <row r="1246" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1246" spans="3:6">
       <c r="C1246" s="1"/>
       <c r="F1246" s="2"/>
     </row>
-    <row r="1247" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1247" spans="3:6">
       <c r="C1247" s="1"/>
       <c r="F1247" s="2"/>
     </row>
-    <row r="1248" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1248" spans="3:6">
       <c r="C1248" s="1"/>
       <c r="F1248" s="2"/>
     </row>
-    <row r="1249" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1249" spans="3:6">
       <c r="C1249" s="1"/>
       <c r="F1249" s="2"/>
     </row>
-    <row r="1250" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1250" spans="3:6">
       <c r="C1250" s="1"/>
       <c r="F1250" s="2"/>
     </row>
-    <row r="1251" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1251" spans="3:6">
       <c r="C1251" s="1"/>
       <c r="F1251" s="2"/>
     </row>
-    <row r="1252" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1252" spans="3:6">
       <c r="C1252" s="1"/>
       <c r="F1252" s="2"/>
     </row>
-    <row r="1253" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1253" spans="3:6">
       <c r="C1253" s="1"/>
       <c r="F1253" s="2"/>
     </row>
-    <row r="1254" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1254" spans="3:6">
       <c r="C1254" s="1"/>
       <c r="F1254" s="2"/>
     </row>
-    <row r="1255" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1255" spans="3:6">
       <c r="C1255" s="1"/>
       <c r="F1255" s="2"/>
     </row>
-    <row r="1256" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1256" spans="3:6">
       <c r="C1256" s="1"/>
       <c r="F1256" s="2"/>
     </row>
-    <row r="1257" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1257" spans="3:6">
       <c r="C1257" s="1"/>
       <c r="F1257" s="2"/>
     </row>
-    <row r="1258" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1258" spans="3:6">
       <c r="C1258" s="1"/>
       <c r="F1258" s="2"/>
     </row>
-    <row r="1259" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1259" spans="3:6">
       <c r="C1259" s="1"/>
       <c r="F1259" s="2"/>
     </row>
-    <row r="1260" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1260" spans="3:6">
       <c r="C1260" s="1"/>
       <c r="F1260" s="2"/>
     </row>
-    <row r="1261" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1261" spans="3:6">
       <c r="C1261" s="1"/>
       <c r="F1261" s="2"/>
     </row>
-    <row r="1262" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1262" spans="3:6">
       <c r="C1262" s="1"/>
       <c r="F1262" s="2"/>
     </row>
-    <row r="1263" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1263" spans="3:6">
       <c r="C1263" s="1"/>
       <c r="F1263" s="2"/>
     </row>
-    <row r="1264" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1264" spans="3:6">
       <c r="C1264" s="1"/>
       <c r="F1264" s="2"/>
     </row>
-    <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:6">
       <c r="C1265" s="1"/>
       <c r="F1265" s="2"/>
     </row>
-    <row r="1266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:6">
       <c r="C1266" s="1"/>
       <c r="F1266" s="2"/>
     </row>
-    <row r="1267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:6">
       <c r="C1267" s="1"/>
       <c r="F1267" s="2"/>
     </row>
-    <row r="1268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:6">
       <c r="C1268" s="1"/>
       <c r="F1268" s="2"/>
     </row>
-    <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1269" spans="1:6">
       <c r="C1269" s="1"/>
       <c r="F1269" s="2"/>
     </row>
-    <row r="1270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1270" spans="1:6">
       <c r="C1270" s="1"/>
       <c r="F1270" s="2"/>
     </row>
-    <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:6">
       <c r="C1271" s="1"/>
       <c r="F1271" s="2"/>
     </row>
-    <row r="1272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1272" spans="1:6">
       <c r="C1272" s="1"/>
       <c r="F1272" s="2"/>
     </row>
-    <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1273" spans="1:6">
       <c r="C1273" s="1"/>
       <c r="F1273" s="2"/>
     </row>
-    <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1274" spans="1:6">
       <c r="C1274" s="1"/>
       <c r="F1274" s="2"/>
     </row>
-    <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1275" spans="1:6">
       <c r="C1275" s="1"/>
       <c r="F1275" s="2"/>
     </row>
-    <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1276" spans="1:6">
       <c r="C1276" s="1"/>
       <c r="F1276" s="2"/>
     </row>
-    <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1277" spans="1:6">
       <c r="C1277" s="1"/>
       <c r="F1277" s="2"/>
     </row>
-    <row r="1278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:6">
       <c r="C1278" s="1"/>
       <c r="F1278" s="2"/>
     </row>
-    <row r="1279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1279" spans="1:6">
       <c r="A1279" s="6"/>
       <c r="C1279" s="1"/>
       <c r="F1279" s="2"/>
     </row>
-    <row r="1280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:6">
       <c r="A1280" s="6"/>
       <c r="C1280" s="1"/>
       <c r="F1280" s="2"/>
     </row>
-    <row r="1281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:6">
       <c r="C1281" s="1"/>
       <c r="F1281" s="2"/>
     </row>
-    <row r="1282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:6">
       <c r="C1282" s="1"/>
       <c r="F1282" s="2"/>
     </row>
-    <row r="1283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:6">
       <c r="C1283" s="1"/>
       <c r="F1283" s="2"/>
     </row>
-    <row r="1284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:6">
       <c r="A1284" s="6"/>
       <c r="C1284" s="1"/>
       <c r="F1284" s="2"/>
     </row>
-    <row r="1285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1285" spans="1:6">
       <c r="C1285" s="1"/>
       <c r="F1285" s="2"/>
     </row>
-    <row r="1286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:6">
       <c r="B1286" s="4"/>
       <c r="C1286" s="2"/>
       <c r="F1286" s="2"/>
     </row>
-    <row r="1287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:6">
       <c r="A1287" s="2"/>
       <c r="B1287" s="4"/>
       <c r="C1287" s="2"/>
     </row>
-    <row r="1288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:6">
       <c r="A1288" s="2"/>
       <c r="B1288" s="4"/>
       <c r="C1288" s="2"/>
     </row>
-    <row r="1289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1289" spans="1:6">
       <c r="A1289" s="2"/>
       <c r="B1289" s="4"/>
       <c r="C1289" s="2"/>
     </row>
-    <row r="1290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:6">
       <c r="A1290" s="2"/>
       <c r="B1290" s="4"/>
       <c r="C1290" s="2"/>
     </row>
-    <row r="1291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:6">
       <c r="A1291" s="2"/>
       <c r="B1291" s="4"/>
       <c r="C1291" s="2"/>
     </row>
-    <row r="1292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1292" spans="1:6">
       <c r="A1292" s="2"/>
       <c r="B1292" s="4"/>
       <c r="C1292" s="2"/>
     </row>
-    <row r="1293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1293" spans="1:6">
       <c r="A1293" s="2"/>
       <c r="B1293" s="4"/>
       <c r="C1293" s="2"/>
     </row>
-    <row r="1294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:6">
       <c r="A1294" s="2"/>
       <c r="B1294" s="4"/>
       <c r="C1294" s="2"/>
     </row>
-    <row r="1295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1295" spans="1:6">
       <c r="A1295" s="2"/>
       <c r="B1295" s="4"/>
       <c r="C1295" s="2"/>
     </row>
-    <row r="1296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:6">
       <c r="A1296" s="2"/>
       <c r="B1296" s="4"/>
       <c r="C1296" s="2"/>
     </row>
-    <row r="1297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:3">
       <c r="A1297" s="2"/>
       <c r="B1297" s="4"/>
       <c r="C1297" s="2"/>
     </row>
-    <row r="1298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1298" spans="1:3">
       <c r="A1298" s="2"/>
       <c r="B1298" s="4"/>
       <c r="C1298" s="2"/>
     </row>
-    <row r="1299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:3">
       <c r="A1299" s="2"/>
       <c r="B1299" s="4"/>
       <c r="C1299" s="2"/>
     </row>
-    <row r="1300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:3">
       <c r="A1300" s="2"/>
       <c r="B1300" s="4"/>
       <c r="C1300" s="2"/>
     </row>
-    <row r="1301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:3">
       <c r="A1301" s="2"/>
       <c r="B1301" s="4"/>
       <c r="C1301" s="2"/>
     </row>
-    <row r="1302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:3">
       <c r="A1302" s="2"/>
       <c r="B1302" s="4"/>
       <c r="C1302" s="2"/>
     </row>
-    <row r="1303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:3">
       <c r="A1303" s="2"/>
       <c r="B1303" s="4"/>
       <c r="C1303" s="2"/>
     </row>
-    <row r="1304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:3">
       <c r="A1304" s="2"/>
       <c r="B1304" s="4"/>
       <c r="C1304" s="2"/>
     </row>
-    <row r="1305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:3">
       <c r="A1305" s="2"/>
       <c r="B1305" s="4"/>
       <c r="C1305" s="2"/>
     </row>
-    <row r="1306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:3">
       <c r="A1306" s="2"/>
       <c r="B1306" s="4"/>
       <c r="C1306" s="2"/>
     </row>
-    <row r="1307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:3">
       <c r="A1307" s="2"/>
       <c r="B1307" s="4"/>
       <c r="C1307" s="2"/>
     </row>
-    <row r="1308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:3">
       <c r="A1308" s="2"/>
       <c r="B1308" s="4"/>
       <c r="C1308" s="2"/>
     </row>
-    <row r="1309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1309" spans="1:3">
       <c r="A1309" s="2"/>
       <c r="B1309" s="4"/>
       <c r="C1309" s="2"/>
     </row>
-    <row r="1310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1310" spans="1:3">
       <c r="A1310" s="2"/>
       <c r="B1310" s="4"/>
       <c r="C1310" s="2"/>
     </row>
-    <row r="1311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:3">
       <c r="A1311" s="2"/>
       <c r="B1311" s="4"/>
       <c r="C1311" s="2"/>
     </row>
-    <row r="1312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:3">
       <c r="A1312" s="2"/>
       <c r="B1312" s="4"/>
       <c r="C1312" s="2"/>
     </row>
-    <row r="1313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:3">
       <c r="A1313" s="2"/>
       <c r="B1313" s="4"/>
       <c r="C1313" s="2"/>
     </row>
-    <row r="1314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:3">
       <c r="A1314" s="2"/>
       <c r="B1314" s="4"/>
       <c r="C1314" s="2"/>
     </row>
-    <row r="1315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:3">
       <c r="A1315" s="2"/>
       <c r="B1315" s="4"/>
       <c r="C1315" s="2"/>
     </row>
-    <row r="1316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:3">
       <c r="A1316" s="2"/>
       <c r="B1316" s="4"/>
       <c r="C1316" s="2"/>
     </row>
-    <row r="1317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:3">
       <c r="A1317" s="2"/>
       <c r="B1317" s="4"/>
       <c r="C1317" s="2"/>
     </row>
-    <row r="1318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:3">
       <c r="A1318" s="2"/>
       <c r="B1318" s="4"/>
       <c r="C1318" s="2"/>
     </row>
-    <row r="1319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1319" spans="1:3">
       <c r="A1319" s="2"/>
       <c r="B1319" s="4"/>
       <c r="C1319" s="2"/>
     </row>
-    <row r="1320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:3">
       <c r="A1320" s="2"/>
       <c r="B1320" s="4"/>
       <c r="C1320" s="2"/>
     </row>
-    <row r="1321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:3">
       <c r="A1321" s="2"/>
       <c r="B1321" s="4"/>
       <c r="C1321" s="2"/>
     </row>
-    <row r="1322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:3">
       <c r="A1322" s="2"/>
       <c r="B1322" s="4"/>
       <c r="C1322" s="2"/>
     </row>
-    <row r="1323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:3">
       <c r="A1323" s="2"/>
       <c r="B1323" s="4"/>
       <c r="C1323" s="2"/>
     </row>
-    <row r="1324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:3">
       <c r="A1324" s="2"/>
       <c r="B1324" s="4"/>
       <c r="C1324" s="2"/>
     </row>
-    <row r="1325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1325" spans="1:3">
       <c r="A1325" s="2"/>
       <c r="B1325" s="4"/>
       <c r="C1325" s="2"/>
     </row>
-    <row r="1326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:3">
       <c r="A1326" s="2"/>
       <c r="B1326" s="4"/>
       <c r="C1326" s="2"/>
     </row>
-    <row r="1327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:3">
       <c r="A1327" s="2"/>
       <c r="B1327" s="4"/>
       <c r="C1327" s="2"/>
     </row>
-    <row r="1328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:3">
       <c r="A1328" s="2"/>
       <c r="B1328" s="4"/>
       <c r="C1328" s="2"/>
     </row>
-    <row r="1329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:3">
       <c r="A1329" s="2"/>
       <c r="B1329" s="4"/>
       <c r="C1329" s="2"/>
     </row>
-    <row r="1330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:3">
       <c r="A1330" s="2"/>
       <c r="B1330" s="4"/>
       <c r="C1330" s="2"/>
     </row>
-    <row r="1331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:3">
       <c r="A1331" s="2"/>
       <c r="B1331" s="4"/>
       <c r="C1331" s="2"/>
     </row>
-    <row r="1332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:3">
       <c r="A1332" s="2"/>
       <c r="B1332" s="4"/>
       <c r="C1332" s="2"/>
     </row>
-    <row r="1333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:3">
       <c r="A1333" s="2"/>
       <c r="B1333" s="4"/>
       <c r="C1333" s="2"/>
     </row>
-    <row r="1334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:3">
       <c r="A1334" s="2"/>
       <c r="B1334" s="4"/>
       <c r="C1334" s="2"/>
     </row>
-    <row r="1335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:3">
       <c r="A1335" s="2"/>
       <c r="B1335" s="4"/>
       <c r="C1335" s="2"/>
     </row>
-    <row r="1336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:3">
       <c r="A1336" s="2"/>
       <c r="B1336" s="4"/>
       <c r="C1336" s="2"/>
     </row>
-    <row r="1337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:3">
       <c r="A1337" s="2"/>
       <c r="B1337" s="4"/>
       <c r="C1337" s="2"/>
     </row>
-    <row r="1338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:3">
       <c r="A1338" s="2"/>
       <c r="B1338" s="4"/>
       <c r="C1338" s="2"/>
     </row>
-    <row r="1339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:3">
       <c r="A1339" s="2"/>
       <c r="B1339" s="4"/>
       <c r="C1339" s="2"/>
     </row>
-    <row r="1340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1340" spans="1:3">
       <c r="A1340" s="2"/>
       <c r="B1340" s="4"/>
       <c r="C1340" s="2"/>
     </row>
-    <row r="1341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:3">
       <c r="A1341" s="2"/>
       <c r="B1341" s="4"/>
       <c r="C1341" s="2"/>
     </row>
-    <row r="1342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:3">
       <c r="A1342" s="2"/>
       <c r="B1342" s="4"/>
       <c r="C1342" s="2"/>
     </row>
-    <row r="1343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:3">
       <c r="A1343" s="2"/>
       <c r="B1343" s="4"/>
       <c r="C1343" s="2"/>
     </row>
-    <row r="1344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:3">
       <c r="A1344" s="2"/>
       <c r="B1344" s="4"/>
       <c r="C1344" s="2"/>
     </row>
-    <row r="1345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1345" spans="1:3">
       <c r="A1345" s="2"/>
       <c r="B1345" s="4"/>
       <c r="C1345" s="2"/>
     </row>
-    <row r="1346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1346" spans="1:3">
       <c r="A1346" s="2"/>
       <c r="B1346" s="4"/>
       <c r="C1346" s="2"/>
     </row>
-    <row r="1347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:3">
       <c r="A1347" s="2"/>
       <c r="B1347" s="4"/>
       <c r="C1347" s="2"/>
     </row>
-    <row r="1348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1348" spans="1:3">
       <c r="A1348" s="2"/>
       <c r="B1348" s="4"/>
       <c r="C1348" s="2"/>
     </row>
-    <row r="1349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1349" spans="1:3">
       <c r="A1349" s="2"/>
       <c r="B1349" s="4"/>
       <c r="C1349" s="2"/>
     </row>
-    <row r="1350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1350" spans="1:3">
       <c r="A1350" s="2"/>
       <c r="B1350" s="4"/>
       <c r="C1350" s="2"/>
     </row>
-    <row r="1351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:3">
       <c r="A1351" s="2"/>
       <c r="B1351" s="4"/>
       <c r="C1351" s="2"/>
     </row>
-    <row r="1352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1352" spans="1:3">
       <c r="A1352" s="2"/>
       <c r="B1352" s="4"/>
       <c r="C1352" s="2"/>
     </row>
-    <row r="1353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1353" spans="1:3">
       <c r="A1353" s="2"/>
       <c r="B1353" s="4"/>
       <c r="C1353" s="2"/>
     </row>
-    <row r="1354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1354" spans="1:3">
       <c r="A1354" s="2"/>
       <c r="B1354" s="4"/>
       <c r="C1354" s="2"/>
     </row>
-    <row r="1355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1355" spans="1:3">
       <c r="A1355" s="2"/>
       <c r="B1355" s="4"/>
       <c r="C1355" s="2"/>
     </row>
-    <row r="1356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1356" spans="1:3">
       <c r="A1356" s="2"/>
       <c r="B1356" s="4"/>
       <c r="C1356" s="2"/>
     </row>
-    <row r="1357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1357" spans="1:3">
       <c r="A1357" s="2"/>
       <c r="B1357" s="4"/>
       <c r="C1357" s="2"/>
     </row>
-    <row r="1358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1358" spans="1:3">
       <c r="A1358" s="2"/>
       <c r="B1358" s="4"/>
       <c r="C1358" s="2"/>
     </row>
-    <row r="1359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1359" spans="1:3">
       <c r="A1359" s="2"/>
       <c r="B1359" s="4"/>
       <c r="C1359" s="2"/>
     </row>
-    <row r="1360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1360" spans="1:3">
       <c r="A1360" s="2"/>
       <c r="B1360" s="4"/>
       <c r="C1360" s="2"/>
     </row>
-    <row r="1361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:3">
       <c r="A1361" s="2"/>
       <c r="B1361" s="4"/>
       <c r="C1361" s="2"/>
     </row>
-    <row r="1362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:3">
       <c r="A1362" s="2"/>
       <c r="B1362" s="4"/>
       <c r="C1362" s="2"/>
     </row>
-    <row r="1363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:3">
       <c r="A1363" s="2"/>
       <c r="B1363" s="4"/>
       <c r="C1363" s="2"/>
     </row>
-    <row r="1364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:3">
       <c r="A1364" s="2"/>
       <c r="B1364" s="4"/>
       <c r="C1364" s="2"/>
     </row>
-    <row r="1365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1365" spans="1:3">
       <c r="A1365" s="2"/>
       <c r="B1365" s="4"/>
       <c r="C1365" s="2"/>
     </row>
-    <row r="1366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1366" spans="1:3">
       <c r="A1366" s="2"/>
       <c r="B1366" s="4"/>
       <c r="C1366" s="2"/>
     </row>
-    <row r="1367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1367" spans="1:3">
       <c r="A1367" s="2"/>
       <c r="B1367" s="4"/>
       <c r="C1367" s="2"/>
     </row>
-    <row r="1368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1368" spans="1:3">
       <c r="A1368" s="2"/>
       <c r="B1368" s="4"/>
       <c r="C1368" s="2"/>
     </row>
-    <row r="1369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1369" spans="1:3">
       <c r="A1369" s="2"/>
       <c r="B1369" s="4"/>
       <c r="C1369" s="2"/>
     </row>
-    <row r="1370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1370" spans="1:3">
       <c r="A1370" s="2"/>
       <c r="B1370" s="4"/>
       <c r="C1370" s="2"/>
     </row>
-    <row r="1371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1371" spans="1:3">
       <c r="A1371" s="2"/>
       <c r="B1371" s="4"/>
       <c r="C1371" s="2"/>
     </row>
-    <row r="1372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1372" spans="1:3">
       <c r="A1372" s="2"/>
       <c r="B1372" s="4"/>
       <c r="C1372" s="2"/>
     </row>
-    <row r="1373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1373" spans="1:3">
       <c r="A1373" s="2"/>
       <c r="B1373" s="4"/>
       <c r="C1373" s="2"/>
     </row>
-    <row r="1374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1374" spans="1:3">
       <c r="A1374" s="2"/>
       <c r="B1374" s="4"/>
       <c r="C1374" s="2"/>
     </row>
-    <row r="1375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1375" spans="1:3">
       <c r="A1375" s="2"/>
       <c r="B1375" s="4"/>
       <c r="C1375" s="2"/>
     </row>
-    <row r="1376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1376" spans="1:3">
       <c r="A1376" s="2"/>
       <c r="B1376" s="4"/>
       <c r="C1376" s="2"/>
     </row>
-    <row r="1377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:3">
       <c r="A1377" s="2"/>
       <c r="B1377" s="4"/>
       <c r="C1377" s="2"/>
     </row>
-    <row r="1378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:3">
       <c r="A1378" s="2"/>
       <c r="B1378" s="4"/>
       <c r="C1378" s="2"/>
     </row>
-    <row r="1379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1379" spans="1:3">
       <c r="A1379" s="2"/>
       <c r="B1379" s="4"/>
       <c r="C1379" s="2"/>
     </row>
-    <row r="1380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1380" spans="1:3">
       <c r="A1380" s="2"/>
       <c r="B1380" s="4"/>
       <c r="C1380" s="2"/>
     </row>
-    <row r="1381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:3">
       <c r="A1381" s="2"/>
       <c r="B1381" s="4"/>
       <c r="C1381" s="2"/>
     </row>
-    <row r="1382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1382" spans="1:3">
       <c r="A1382" s="2"/>
       <c r="B1382" s="4"/>
       <c r="C1382" s="2"/>
     </row>
-    <row r="1383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:3">
       <c r="A1383" s="2"/>
       <c r="B1383" s="4"/>
       <c r="C1383" s="2"/>
     </row>
-    <row r="1384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:3">
       <c r="A1384" s="2"/>
       <c r="B1384" s="4"/>
       <c r="C1384" s="2"/>
     </row>
-    <row r="1385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:3">
       <c r="A1385" s="2"/>
       <c r="B1385" s="4"/>
       <c r="C1385" s="2"/>
     </row>
-    <row r="1386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1386" spans="1:3">
       <c r="A1386" s="2"/>
       <c r="B1386" s="4"/>
       <c r="C1386" s="2"/>
     </row>
-    <row r="1387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1387" spans="1:3">
       <c r="A1387" s="2"/>
       <c r="B1387" s="4"/>
       <c r="C1387" s="2"/>
     </row>
-    <row r="1388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1388" spans="1:3">
       <c r="A1388" s="2"/>
       <c r="B1388" s="4"/>
       <c r="C1388" s="2"/>
     </row>
-    <row r="1389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:3">
       <c r="A1389" s="2"/>
       <c r="B1389" s="4"/>
       <c r="C1389" s="2"/>
     </row>
-    <row r="1390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:3">
       <c r="A1390" s="2"/>
       <c r="B1390" s="4"/>
       <c r="C1390" s="2"/>
     </row>
-    <row r="1391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1391" spans="1:3">
       <c r="A1391" s="2"/>
       <c r="B1391" s="4"/>
       <c r="C1391" s="2"/>
     </row>
-    <row r="1392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1392" spans="1:3">
       <c r="A1392" s="2"/>
       <c r="B1392" s="4"/>
       <c r="C1392" s="2"/>
     </row>
-    <row r="1393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:3">
       <c r="A1393" s="2"/>
       <c r="B1393" s="4"/>
       <c r="C1393" s="2"/>
     </row>
-    <row r="1394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:3">
       <c r="A1394" s="2"/>
       <c r="B1394" s="4"/>
       <c r="C1394" s="2"/>
     </row>
-    <row r="1395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:3">
       <c r="A1395" s="2"/>
       <c r="B1395" s="4"/>
       <c r="C1395" s="2"/>
     </row>
-    <row r="1396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1396" spans="1:3">
       <c r="A1396" s="2"/>
       <c r="B1396" s="4"/>
       <c r="C1396" s="2"/>
     </row>
-    <row r="1397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1397" spans="1:3">
       <c r="A1397" s="2"/>
       <c r="B1397" s="4"/>
       <c r="C1397" s="2"/>
     </row>
-    <row r="1398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:3">
       <c r="A1398" s="2"/>
       <c r="B1398" s="4"/>
       <c r="C1398" s="2"/>
     </row>
-    <row r="1399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:3">
       <c r="A1399" s="2"/>
       <c r="B1399" s="4"/>
       <c r="C1399" s="2"/>
     </row>
-    <row r="1400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1400" spans="1:3">
       <c r="A1400" s="2"/>
       <c r="B1400" s="4"/>
       <c r="C1400" s="2"/>
     </row>
-    <row r="1401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1401" spans="1:3">
       <c r="A1401" s="2"/>
       <c r="B1401" s="4"/>
       <c r="C1401" s="2"/>
     </row>
-    <row r="1402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:3">
       <c r="A1402" s="2"/>
       <c r="B1402" s="4"/>
       <c r="C1402" s="2"/>
     </row>
-    <row r="1403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1403" spans="1:3">
       <c r="A1403" s="2"/>
       <c r="B1403" s="4"/>
       <c r="C1403" s="2"/>
     </row>
-    <row r="1404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:3">
       <c r="A1404" s="2"/>
       <c r="B1404" s="4"/>
       <c r="C1404" s="2"/>
     </row>
-    <row r="1405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:3">
       <c r="A1405" s="2"/>
       <c r="B1405" s="4"/>
       <c r="C1405" s="2"/>
     </row>
-    <row r="1406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:3">
       <c r="A1406" s="2"/>
       <c r="B1406" s="4"/>
       <c r="C1406" s="2"/>
     </row>
-    <row r="1407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:3">
       <c r="A1407" s="2"/>
       <c r="B1407" s="4"/>
       <c r="C1407" s="2"/>
     </row>
-    <row r="1408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1408" spans="1:3">
       <c r="A1408" s="2"/>
       <c r="B1408" s="4"/>
       <c r="C1408" s="2"/>
     </row>
-    <row r="1409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1409" spans="1:3">
       <c r="A1409" s="2"/>
       <c r="B1409" s="4"/>
       <c r="C1409" s="2"/>
     </row>
-    <row r="1410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1410" spans="1:3">
       <c r="A1410" s="2"/>
       <c r="B1410" s="4"/>
       <c r="C1410" s="2"/>
     </row>
-    <row r="1411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1411" spans="1:3">
       <c r="A1411" s="2"/>
       <c r="B1411" s="4"/>
       <c r="C1411" s="2"/>
     </row>
-    <row r="1412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1412" spans="1:3">
       <c r="A1412" s="2"/>
       <c r="B1412" s="4"/>
       <c r="C1412" s="2"/>
     </row>
-    <row r="1413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1413" spans="1:3">
       <c r="A1413" s="2"/>
       <c r="B1413" s="4"/>
       <c r="C1413" s="2"/>
     </row>
-    <row r="1414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1414" spans="1:3">
       <c r="A1414" s="2"/>
       <c r="B1414" s="4"/>
       <c r="C1414" s="2"/>
     </row>
-    <row r="1415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1415" spans="1:3">
       <c r="A1415" s="2"/>
       <c r="B1415" s="4"/>
       <c r="C1415" s="2"/>
     </row>
-    <row r="1416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:3">
       <c r="A1416" s="2"/>
       <c r="B1416" s="4"/>
       <c r="C1416" s="2"/>
     </row>
-    <row r="1417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1417" spans="1:3">
       <c r="A1417" s="2"/>
       <c r="B1417" s="4"/>
       <c r="C1417" s="2"/>
     </row>
-    <row r="1418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1418" spans="1:3">
       <c r="A1418" s="2"/>
       <c r="B1418" s="4"/>
       <c r="C1418" s="2"/>
     </row>
-    <row r="1419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:3">
       <c r="A1419" s="2"/>
       <c r="B1419" s="4"/>
       <c r="C1419" s="2"/>
     </row>
-    <row r="1420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1420" spans="1:3">
       <c r="A1420" s="2"/>
       <c r="B1420" s="4"/>
       <c r="C1420" s="2"/>
     </row>
-    <row r="1421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1421" spans="1:3">
       <c r="A1421" s="2"/>
       <c r="B1421" s="4"/>
       <c r="C1421" s="2"/>
     </row>
-    <row r="1422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1422" spans="1:3">
       <c r="A1422" s="2"/>
       <c r="B1422" s="4"/>
       <c r="C1422" s="2"/>
     </row>
-    <row r="1423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1423" spans="1:3">
       <c r="A1423" s="2"/>
       <c r="B1423" s="4"/>
       <c r="C1423" s="2"/>
     </row>
-    <row r="1424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1424" spans="1:3">
       <c r="A1424" s="2"/>
       <c r="B1424" s="4"/>
       <c r="C1424" s="2"/>
     </row>
-    <row r="1425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1425" spans="1:3">
       <c r="A1425" s="2"/>
       <c r="B1425" s="4"/>
       <c r="C1425" s="2"/>
     </row>
-    <row r="1426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1426" spans="1:3">
       <c r="A1426" s="2"/>
       <c r="B1426" s="4"/>
       <c r="C1426" s="2"/>
     </row>
-    <row r="1427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1427" spans="1:3">
       <c r="A1427" s="2"/>
       <c r="B1427" s="4"/>
       <c r="C1427" s="2"/>
     </row>
-    <row r="1428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:3">
       <c r="A1428" s="2"/>
       <c r="B1428" s="4"/>
       <c r="C1428" s="2"/>
     </row>
-    <row r="1429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1429" spans="1:3">
       <c r="A1429" s="2"/>
       <c r="B1429" s="4"/>
       <c r="C1429" s="2"/>
     </row>
-    <row r="1430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1430" spans="1:3">
       <c r="A1430" s="2"/>
       <c r="B1430" s="4"/>
       <c r="C1430" s="2"/>
     </row>
-    <row r="1431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1431" spans="1:3">
       <c r="A1431" s="2"/>
       <c r="B1431" s="4"/>
       <c r="C1431" s="2"/>
     </row>
-    <row r="1432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1432" spans="1:3">
       <c r="A1432" s="2"/>
       <c r="B1432" s="4"/>
       <c r="C1432" s="2"/>
     </row>
-    <row r="1433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1433" spans="1:3">
       <c r="A1433" s="2"/>
       <c r="B1433" s="4"/>
       <c r="C1433" s="2"/>
     </row>
-    <row r="1434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1434" spans="1:3">
       <c r="A1434" s="2"/>
       <c r="B1434" s="4"/>
       <c r="C1434" s="2"/>
     </row>
-    <row r="1435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1435" spans="1:3">
       <c r="A1435" s="2"/>
       <c r="B1435" s="4"/>
       <c r="C1435" s="2"/>
     </row>
-    <row r="1436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1436" spans="1:3">
       <c r="A1436" s="2"/>
       <c r="B1436" s="4"/>
       <c r="C1436" s="2"/>
     </row>
-    <row r="1437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1437" spans="1:3">
       <c r="A1437" s="2"/>
       <c r="B1437" s="4"/>
       <c r="C1437" s="2"/>
     </row>
-    <row r="1438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1438" spans="1:3">
       <c r="A1438" s="2"/>
       <c r="B1438" s="4"/>
       <c r="C1438" s="2"/>
     </row>
-    <row r="1439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1439" spans="1:3">
       <c r="A1439" s="2"/>
       <c r="B1439" s="4"/>
       <c r="C1439" s="2"/>
     </row>
-    <row r="1440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1440" spans="1:3">
       <c r="A1440" s="2"/>
       <c r="B1440" s="4"/>
       <c r="C1440" s="2"/>
     </row>
-    <row r="1441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1441" spans="1:3">
       <c r="A1441" s="2"/>
       <c r="B1441" s="4"/>
       <c r="C1441" s="2"/>
     </row>
-    <row r="1442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1442" spans="1:3">
       <c r="A1442" s="2"/>
       <c r="B1442" s="4"/>
       <c r="C1442" s="2"/>
     </row>
-    <row r="1443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1443" spans="1:3">
       <c r="A1443" s="2"/>
       <c r="B1443" s="4"/>
       <c r="C1443" s="2"/>
     </row>
-    <row r="1444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1444" spans="1:3">
       <c r="A1444" s="2"/>
       <c r="B1444" s="4"/>
       <c r="C1444" s="2"/>
     </row>
-    <row r="1445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1445" spans="1:3">
       <c r="A1445" s="2"/>
       <c r="B1445" s="4"/>
       <c r="C1445" s="2"/>
     </row>
-    <row r="1446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1446" spans="1:3">
       <c r="A1446" s="2"/>
       <c r="B1446" s="4"/>
       <c r="C1446" s="2"/>
     </row>
-    <row r="1447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1447" spans="1:3">
       <c r="A1447" s="2"/>
       <c r="B1447" s="4"/>
       <c r="C1447" s="2"/>
     </row>
-    <row r="1448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1448" spans="1:3">
       <c r="A1448" s="2"/>
       <c r="B1448" s="4"/>
       <c r="C1448" s="2"/>
     </row>
-    <row r="1449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1449" spans="1:3">
       <c r="A1449" s="2"/>
       <c r="B1449" s="4"/>
       <c r="C1449" s="2"/>
     </row>
-    <row r="1450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1450" spans="1:3">
       <c r="A1450" s="2"/>
       <c r="B1450" s="4"/>
       <c r="C1450" s="2"/>
     </row>
-    <row r="1451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1451" spans="1:3">
       <c r="A1451" s="2"/>
       <c r="B1451" s="4"/>
       <c r="C1451" s="2"/>
     </row>
-    <row r="1452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1452" spans="1:3">
       <c r="A1452" s="2"/>
       <c r="B1452" s="4"/>
       <c r="C1452" s="2"/>
     </row>
-    <row r="1453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1453" spans="1:3">
       <c r="A1453" s="2"/>
       <c r="B1453" s="4"/>
       <c r="C1453" s="2"/>
     </row>
-    <row r="1454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1454" spans="1:3">
       <c r="A1454" s="2"/>
       <c r="B1454" s="4"/>
       <c r="C1454" s="2"/>
     </row>
-    <row r="1455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1455" spans="1:3">
       <c r="A1455" s="2"/>
       <c r="B1455" s="4"/>
       <c r="C1455" s="2"/>
     </row>
-    <row r="1456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1456" spans="1:3">
       <c r="A1456" s="2"/>
       <c r="B1456" s="4"/>
       <c r="C1456" s="2"/>
     </row>
-    <row r="1457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1457" spans="1:3">
       <c r="A1457" s="2"/>
       <c r="B1457" s="4"/>
       <c r="C1457" s="2"/>
     </row>
-    <row r="1458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1458" spans="1:3">
       <c r="A1458" s="2"/>
       <c r="B1458" s="4"/>
       <c r="C1458" s="2"/>
     </row>
-    <row r="1459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1459" spans="1:3">
       <c r="A1459" s="2"/>
       <c r="B1459" s="4"/>
       <c r="C1459" s="2"/>
     </row>
-    <row r="1460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1460" spans="1:3">
       <c r="A1460" s="2"/>
       <c r="B1460" s="4"/>
       <c r="C1460" s="2"/>
     </row>
-    <row r="1461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1461" spans="1:3">
       <c r="A1461" s="2"/>
       <c r="B1461" s="4"/>
       <c r="C1461" s="2"/>
@@ -9762,12 +9749,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
